--- a/T2F_MATLAB/Curto_Circuito/DadosTrifasicoT2F.xlsx
+++ b/T2F_MATLAB/Curto_Circuito/DadosTrifasicoT2F.xlsx
@@ -512,31 +512,31 @@
         <v>13.33</v>
       </c>
       <c r="H2">
-        <v>95.0761</v>
+        <v>95.07612</v>
       </c>
       <c r="I2">
-        <v>86.99639999999999</v>
+        <v>86.99636</v>
       </c>
       <c r="J2">
-        <v>83.53570000000001</v>
+        <v>83.53567</v>
       </c>
       <c r="K2">
-        <v>86.3428</v>
+        <v>110.287</v>
       </c>
       <c r="L2">
-        <v>88.70440000000001</v>
+        <v>113.8529</v>
       </c>
       <c r="M2">
-        <v>88.2051</v>
+        <v>113.8417</v>
       </c>
       <c r="N2">
-        <v>0.1011468240548141</v>
+        <v>-0.1379208791607352</v>
       </c>
       <c r="O2">
-        <v>-0.01925496367711199</v>
+        <v>-0.2358880625789946</v>
       </c>
       <c r="P2">
-        <v>-0.05293798204412212</v>
+        <v>-0.2662120295111546</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -571,22 +571,22 @@
         <v>74.41089950999999</v>
       </c>
       <c r="K3">
-        <v>71.34353244</v>
+        <v>90.155573</v>
       </c>
       <c r="L3">
-        <v>2.838429746</v>
+        <v>2.813575607</v>
       </c>
       <c r="M3">
-        <v>73.53011658</v>
+        <v>92.62639879</v>
       </c>
       <c r="N3">
-        <v>0.04284979037968125</v>
+        <v>-0.1747533139188191</v>
       </c>
       <c r="O3">
-        <v>-0.9942991086346937</v>
+        <v>-0.9942487489620889</v>
       </c>
       <c r="P3">
-        <v>0.01197853302791534</v>
+        <v>-0.1966555919041792</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -621,22 +621,22 @@
         <v>74.39947849000001</v>
       </c>
       <c r="K4">
-        <v>2.528513549</v>
+        <v>2.49455429</v>
       </c>
       <c r="L4">
-        <v>74.57168149</v>
+        <v>93.86768556</v>
       </c>
       <c r="M4">
-        <v>72.64525017</v>
+        <v>91.69489381</v>
       </c>
       <c r="N4">
-        <v>-0.9930070475608118</v>
+        <v>-0.992911850000266</v>
       </c>
       <c r="O4">
-        <v>-0.002141022930016866</v>
+        <v>-0.2072668952465435</v>
       </c>
       <c r="P4">
-        <v>0.02414787361726846</v>
+        <v>-0.1886191760670734</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -671,22 +671,22 @@
         <v>0.01691163875</v>
       </c>
       <c r="K5">
-        <v>74.47043001</v>
+        <v>93.74215166</v>
       </c>
       <c r="L5">
-        <v>72.47876818</v>
+        <v>91.48671455</v>
       </c>
       <c r="M5">
-        <v>2.484717206</v>
+        <v>2.481654483</v>
       </c>
       <c r="N5">
-        <v>-0.02814947355236839</v>
+        <v>-0.2279446830653215</v>
       </c>
       <c r="O5">
-        <v>-0.001597010033511391</v>
+        <v>-0.2090324894064086</v>
       </c>
       <c r="P5">
-        <v>-0.9931937370139498</v>
+        <v>-0.9931853370943259</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -721,22 +721,22 @@
         <v>0.01127904214</v>
       </c>
       <c r="K6">
-        <v>2.512878756</v>
+        <v>2.492748735</v>
       </c>
       <c r="L6">
-        <v>2.838458937</v>
+        <v>2.813590223</v>
       </c>
       <c r="M6">
-        <v>2.512767932</v>
+        <v>2.493524242</v>
       </c>
       <c r="N6">
-        <v>-0.9955115282450181</v>
+        <v>-0.9954752819000026</v>
       </c>
       <c r="O6">
-        <v>-0.9960263698329485</v>
+        <v>-0.9959912477773775</v>
       </c>
       <c r="P6">
-        <v>-0.9955113076713684</v>
+        <v>-0.9954766663383415</v>
       </c>
     </row>
   </sheetData>
@@ -825,31 +825,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H2">
-        <v>4.425026322</v>
+        <v>4.398561246</v>
       </c>
       <c r="I2">
-        <v>115.1761451</v>
+        <v>170.1867751</v>
       </c>
       <c r="J2">
-        <v>112.3087204</v>
+        <v>166.649271</v>
       </c>
       <c r="K2">
-        <v>2.579911211</v>
+        <v>2.557645897</v>
       </c>
       <c r="L2">
-        <v>114.3976277</v>
+        <v>169.1175417</v>
       </c>
       <c r="M2">
-        <v>112.5556407</v>
+        <v>166.8377347</v>
       </c>
       <c r="N2">
-        <v>0.7151855083744584</v>
+        <v>0.7197694376533156</v>
       </c>
       <c r="O2">
-        <v>0.006805363150026216</v>
+        <v>0.006322427521426074</v>
       </c>
       <c r="P2">
-        <v>-0.002193762111470965</v>
+        <v>-0.001129622745950649</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -875,31 +875,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H3">
-        <v>4.366472719</v>
+        <v>4.33395861</v>
       </c>
       <c r="I3">
-        <v>109.586132</v>
+        <v>158.4455542</v>
       </c>
       <c r="J3">
-        <v>106.708473</v>
+        <v>154.9383277</v>
       </c>
       <c r="K3">
-        <v>2.569546847</v>
+        <v>2.542919935</v>
       </c>
       <c r="L3">
-        <v>106.4740322</v>
+        <v>151.0846621</v>
       </c>
       <c r="M3">
-        <v>104.5874385</v>
+        <v>148.8048646</v>
       </c>
       <c r="N3">
-        <v>0.699316252629505</v>
+        <v>0.7043236597223026</v>
       </c>
       <c r="O3">
-        <v>0.02922872117920984</v>
+        <v>0.04872031348309843</v>
       </c>
       <c r="P3">
-        <v>0.02028001192514141</v>
+        <v>0.04121816256805357</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -925,31 +925,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H4">
-        <v>4.313546249</v>
+        <v>4.276348227</v>
       </c>
       <c r="I4">
-        <v>104.4633898</v>
+        <v>148.0866939</v>
       </c>
       <c r="J4">
-        <v>101.5762782</v>
+        <v>144.6067889</v>
       </c>
       <c r="K4">
-        <v>2.561264915</v>
+        <v>2.531824662</v>
       </c>
       <c r="L4">
-        <v>99.45621604</v>
+        <v>136.4123647</v>
       </c>
       <c r="M4">
-        <v>97.53157234</v>
+        <v>134.1324026</v>
       </c>
       <c r="N4">
-        <v>0.6841468540555086</v>
+        <v>0.6890380645956437</v>
       </c>
       <c r="O4">
-        <v>0.05034550839925561</v>
+        <v>0.08558116579588908</v>
       </c>
       <c r="P4">
-        <v>0.04147073366048031</v>
+        <v>0.07808990293893379</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -975,31 +975,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H5">
-        <v>4.265963483</v>
+        <v>4.225203987</v>
       </c>
       <c r="I5">
-        <v>99.7971124</v>
+        <v>138.9727693</v>
       </c>
       <c r="J5">
-        <v>96.90132221</v>
+        <v>135.5173369</v>
       </c>
       <c r="K5">
-        <v>2.554748065</v>
+        <v>2.523458902</v>
       </c>
       <c r="L5">
-        <v>93.26850523</v>
+        <v>124.3530818</v>
       </c>
       <c r="M5">
-        <v>91.31133543</v>
+        <v>122.0727699</v>
       </c>
       <c r="N5">
-        <v>0.6698176784801675</v>
+        <v>0.6743700417118982</v>
       </c>
       <c r="O5">
-        <v>0.06999798221168511</v>
+        <v>0.1175659443930244</v>
       </c>
       <c r="P5">
-        <v>0.06121897958972829</v>
+        <v>0.1101356757204213</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1025,31 +1025,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H6">
-        <v>4.222985292</v>
+        <v>4.179533352</v>
       </c>
       <c r="I6">
-        <v>95.52904233</v>
+        <v>130.8962716</v>
       </c>
       <c r="J6">
-        <v>92.62524098999999</v>
+        <v>127.4628406</v>
       </c>
       <c r="K6">
-        <v>2.549659561</v>
+        <v>2.517118578</v>
       </c>
       <c r="L6">
-        <v>87.77987087</v>
+        <v>114.2658493</v>
       </c>
       <c r="M6">
-        <v>85.79455642000001</v>
+        <v>111.9850015</v>
       </c>
       <c r="N6">
-        <v>0.6562937878434665</v>
+        <v>0.6604435677086327</v>
       </c>
       <c r="O6">
-        <v>0.08827959511898061</v>
+        <v>0.1455414929471846</v>
       </c>
       <c r="P6">
-        <v>0.07961675955944045</v>
+        <v>0.1382135008499331</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1075,31 +1075,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H7">
-        <v>4.18400385</v>
+        <v>4.138529091</v>
       </c>
       <c r="I7">
-        <v>91.61040959</v>
+        <v>123.6925346</v>
       </c>
       <c r="J7">
-        <v>88.69917714</v>
+        <v>120.2789547</v>
       </c>
       <c r="K7">
-        <v>2.545738368</v>
+        <v>2.512323543</v>
       </c>
       <c r="L7">
-        <v>82.88364548</v>
+        <v>105.7033486</v>
       </c>
       <c r="M7">
-        <v>80.87369866</v>
+        <v>103.421781</v>
       </c>
       <c r="N7">
-        <v>0.6435325415184221</v>
+        <v>0.6472914495949537</v>
       </c>
       <c r="O7">
-        <v>0.1052893373531186</v>
+        <v>0.1701855829380982</v>
       </c>
       <c r="P7">
-        <v>0.09676172364638579</v>
+        <v>0.162994424743082</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1125,31 +1125,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H8">
-        <v>4.148505046</v>
+        <v>4.10153024</v>
       </c>
       <c r="I8">
-        <v>88.00007852</v>
+        <v>117.2294266</v>
       </c>
       <c r="J8">
-        <v>85.08192635</v>
+        <v>113.8338188</v>
       </c>
       <c r="K8">
-        <v>2.542780105</v>
+        <v>2.50873531</v>
       </c>
       <c r="L8">
-        <v>78.49262312</v>
+        <v>98.34396676</v>
       </c>
       <c r="M8">
-        <v>76.46088691999999</v>
+        <v>96.06149927</v>
       </c>
       <c r="N8">
-        <v>0.6314839957425263</v>
+        <v>0.6348995542299756</v>
       </c>
       <c r="O8">
-        <v>0.1211254640511242</v>
+        <v>0.1920347578218839</v>
       </c>
       <c r="P8">
-        <v>0.1127509734358704</v>
+        <v>0.1850098079361364</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1175,31 +1175,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H9">
-        <v>4.116055605</v>
+        <v>4.067991716</v>
       </c>
       <c r="I9">
-        <v>84.66311627</v>
+        <v>111.3998255</v>
       </c>
       <c r="J9">
-        <v>81.73849817999999</v>
+        <v>108.020542</v>
       </c>
       <c r="K9">
-        <v>2.540623445</v>
+        <v>2.506109088</v>
       </c>
       <c r="L9">
-        <v>74.53512794</v>
+        <v>91.95056517</v>
       </c>
       <c r="M9">
-        <v>72.48392353</v>
+        <v>89.66702072</v>
       </c>
       <c r="N9">
-        <v>0.6200966786717186</v>
+        <v>0.6232301041797267</v>
       </c>
       <c r="O9">
-        <v>0.1358820815086402</v>
+        <v>0.2115186599891129</v>
       </c>
       <c r="P9">
-        <v>0.1276776173156475</v>
+        <v>0.204685302719178</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1225,31 +1225,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H10">
-        <v>4.086298646</v>
+        <v>4.037464433</v>
       </c>
       <c r="I10">
-        <v>81.56966905</v>
+        <v>106.1160563</v>
       </c>
       <c r="J10">
-        <v>78.63898116999999</v>
+        <v>102.7516418</v>
       </c>
       <c r="K10">
-        <v>2.539140275</v>
+        <v>2.504263114</v>
       </c>
       <c r="L10">
-        <v>70.95190365000001</v>
+        <v>86.34447197</v>
       </c>
       <c r="M10">
-        <v>68.8831404</v>
+        <v>84.0596766</v>
       </c>
       <c r="N10">
-        <v>0.6093237093803338</v>
+        <v>0.6122365139783791</v>
       </c>
       <c r="O10">
-        <v>0.1496473646764514</v>
+        <v>0.2289849469097401</v>
       </c>
       <c r="P10">
-        <v>0.141628861770071</v>
+        <v>0.2223654189028845</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1275,31 +1275,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H11">
-        <v>4.058920283</v>
+        <v>4.009566017</v>
       </c>
       <c r="I11">
-        <v>78.69406658</v>
+        <v>101.305721</v>
       </c>
       <c r="J11">
-        <v>75.75766632</v>
+        <v>97.95489219</v>
       </c>
       <c r="K11">
-        <v>2.538227805</v>
+        <v>2.503059911</v>
       </c>
       <c r="L11">
-        <v>67.69365679000001</v>
+        <v>81.38851825</v>
       </c>
       <c r="M11">
-        <v>65.60891565999999</v>
+        <v>79.10230048</v>
       </c>
       <c r="N11">
-        <v>0.599115837831585</v>
+        <v>0.6018657801115653</v>
       </c>
       <c r="O11">
-        <v>0.1625028150588109</v>
+        <v>0.2447175987259112</v>
       </c>
       <c r="P11">
-        <v>0.1546855417119388</v>
+        <v>0.2383317753794864</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1325,31 +1325,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H12">
-        <v>4.033899502</v>
+        <v>3.984223311</v>
       </c>
       <c r="I12">
-        <v>76.04001735</v>
+        <v>96.95064963</v>
       </c>
       <c r="J12">
-        <v>73.09827736</v>
+        <v>93.61214735999999</v>
       </c>
       <c r="K12">
-        <v>2.537805263</v>
+        <v>2.502397757</v>
       </c>
       <c r="L12">
-        <v>64.74759654</v>
+        <v>77.01738949</v>
       </c>
       <c r="M12">
-        <v>62.6483345</v>
+        <v>74.72959667000001</v>
       </c>
       <c r="N12">
-        <v>0.5895228687607933</v>
+        <v>0.5921622771019773</v>
       </c>
       <c r="O12">
-        <v>0.174406795208587</v>
+        <v>0.2588150581575886</v>
       </c>
       <c r="P12">
-        <v>0.1668032030444481</v>
+        <v>0.2526783434063459</v>
       </c>
     </row>
   </sheetData>
@@ -1438,31 +1438,31 @@
         <v>1000000</v>
       </c>
       <c r="H2">
-        <v>140.5482755</v>
+        <v>269.9138147</v>
       </c>
       <c r="I2">
-        <v>138.4785689</v>
+        <v>267.0519459</v>
       </c>
       <c r="J2">
-        <v>3.911960313</v>
+        <v>3.864944836</v>
       </c>
       <c r="K2">
-        <v>140.053847</v>
+        <v>269.1154538</v>
       </c>
       <c r="L2">
-        <v>138.7366012</v>
+        <v>267.2807767</v>
       </c>
       <c r="M2">
-        <v>2.459095648</v>
+        <v>2.416368863</v>
       </c>
       <c r="N2">
-        <v>0.003530274323703497</v>
+        <v>0.002966611128149109</v>
       </c>
       <c r="O2">
-        <v>-0.001859871856223594</v>
+        <v>-0.0008561438754602691</v>
       </c>
       <c r="P2">
-        <v>0.5908125884333231</v>
+        <v>0.5994846214007019</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1488,31 +1488,31 @@
         <v>1000000</v>
       </c>
       <c r="H3">
-        <v>129.9099208</v>
+        <v>228.0069781</v>
       </c>
       <c r="I3">
-        <v>127.6568897</v>
+        <v>224.9981465</v>
       </c>
       <c r="J3">
-        <v>3.911945449</v>
+        <v>3.864930402</v>
       </c>
       <c r="K3">
-        <v>129.7839415</v>
+        <v>228.2208276</v>
       </c>
       <c r="L3">
-        <v>128.340069</v>
+        <v>226.2742948</v>
       </c>
       <c r="M3">
-        <v>2.466766056</v>
+        <v>2.438309018</v>
       </c>
       <c r="N3">
-        <v>0.0009706848054080062</v>
+        <v>-0.0009370288516121791</v>
       </c>
       <c r="O3">
-        <v>-0.005323195673207922</v>
+        <v>-0.005639828868444746</v>
       </c>
       <c r="P3">
-        <v>0.5858599316643103</v>
+        <v>0.5850863748066572</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1538,31 +1538,31 @@
         <v>1000000</v>
       </c>
       <c r="H4">
-        <v>120.4026866</v>
+        <v>196.7282615</v>
       </c>
       <c r="I4">
-        <v>117.9965302</v>
+        <v>193.6172778</v>
       </c>
       <c r="J4">
-        <v>3.911930456</v>
+        <v>3.864915195</v>
       </c>
       <c r="K4">
-        <v>120.5249142</v>
+        <v>197.399365</v>
       </c>
       <c r="L4">
-        <v>118.974851</v>
+        <v>195.3747739</v>
       </c>
       <c r="M4">
-        <v>2.47272926</v>
+        <v>2.452980633</v>
       </c>
       <c r="N4">
-        <v>-0.001014127251708114</v>
+        <v>-0.003399724715426449</v>
       </c>
       <c r="O4">
-        <v>-0.008222920993614069</v>
+        <v>-0.008995511881690255</v>
       </c>
       <c r="P4">
-        <v>0.5820294276778203</v>
+        <v>0.5755995554979988</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1588,31 +1588,31 @@
         <v>1000000</v>
       </c>
       <c r="H5">
-        <v>112.0019179</v>
+        <v>172.827424</v>
       </c>
       <c r="I5">
-        <v>109.4680845</v>
+        <v>169.6424169</v>
       </c>
       <c r="J5">
-        <v>3.911915417</v>
+        <v>3.864901204</v>
       </c>
       <c r="K5">
-        <v>112.2866855</v>
+        <v>173.6966152</v>
       </c>
       <c r="L5">
-        <v>110.6477963</v>
+        <v>171.6153685</v>
       </c>
       <c r="M5">
-        <v>2.477203172</v>
+        <v>2.462905543</v>
       </c>
       <c r="N5">
-        <v>-0.002536076283060374</v>
+        <v>-0.005004076786408149</v>
       </c>
       <c r="O5">
-        <v>-0.01066186439720348</v>
+        <v>-0.01149635733235621</v>
       </c>
       <c r="P5">
-        <v>0.5791661585196776</v>
+        <v>0.5692445920164141</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1638,31 +1638,31 @@
         <v>1000000</v>
       </c>
       <c r="H6">
-        <v>104.5667721</v>
+        <v>154.0244481</v>
       </c>
       <c r="I6">
-        <v>101.9254517</v>
+        <v>150.7834893</v>
       </c>
       <c r="J6">
-        <v>3.911900381</v>
+        <v>3.864886068</v>
       </c>
       <c r="K6">
-        <v>104.9552503</v>
+        <v>154.966146</v>
       </c>
       <c r="L6">
-        <v>103.2413738</v>
+        <v>152.8420401</v>
       </c>
       <c r="M6">
-        <v>2.480460808</v>
+        <v>2.469711194</v>
       </c>
       <c r="N6">
-        <v>-0.003701369858959868</v>
+        <v>-0.006076797573581059</v>
       </c>
       <c r="O6">
-        <v>-0.01274607312519129</v>
+        <v>-0.01346848549426015</v>
       </c>
       <c r="P6">
-        <v>0.5770861480186709</v>
+        <v>0.5649141800018906</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1688,31 +1688,31 @@
         <v>1000000</v>
       </c>
       <c r="H7">
-        <v>97.96695913000001</v>
+        <v>138.8725001</v>
       </c>
       <c r="I7">
-        <v>95.23428824</v>
+        <v>135.587797</v>
       </c>
       <c r="J7">
-        <v>3.911885339</v>
+        <v>3.864871944</v>
       </c>
       <c r="K7">
-        <v>98.41857431</v>
+        <v>139.8229776</v>
       </c>
       <c r="L7">
-        <v>96.64079786000001</v>
+        <v>137.6653361</v>
       </c>
       <c r="M7">
-        <v>2.482731985</v>
+        <v>2.47438493</v>
       </c>
       <c r="N7">
-        <v>-0.004588718980804248</v>
+        <v>-0.006797720348361435</v>
       </c>
       <c r="O7">
-        <v>-0.01455399428756339</v>
+        <v>-0.01509122890958457</v>
       </c>
       <c r="P7">
-        <v>0.5756373876175764</v>
+        <v>0.5619525875466758</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1738,31 +1738,31 @@
         <v>1000000</v>
       </c>
       <c r="H8">
-        <v>92.08730267999999</v>
+        <v>126.4165725</v>
       </c>
       <c r="I8">
-        <v>89.27628731999999</v>
+        <v>123.0967197</v>
       </c>
       <c r="J8">
-        <v>3.911870276</v>
+        <v>3.864857301</v>
       </c>
       <c r="K8">
-        <v>92.57389338</v>
+        <v>127.3425585</v>
       </c>
       <c r="L8">
-        <v>90.7411614</v>
+        <v>125.1579319</v>
       </c>
       <c r="M8">
-        <v>2.48420451</v>
+        <v>2.477551399</v>
       </c>
       <c r="N8">
-        <v>-0.005256241065746649</v>
+        <v>-0.007271614540397307</v>
       </c>
       <c r="O8">
-        <v>-0.01614343543105677</v>
+        <v>-0.0164688898954234</v>
       </c>
       <c r="P8">
-        <v>0.5746973569418405</v>
+        <v>0.559950402062274</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1788,31 +1788,31 @@
         <v>1000000</v>
       </c>
       <c r="H9">
-        <v>86.82837597</v>
+        <v>116.0039293</v>
       </c>
       <c r="I9">
-        <v>83.94959246000001</v>
+        <v>112.6551852</v>
       </c>
       <c r="J9">
-        <v>3.911855189</v>
+        <v>3.864842259</v>
       </c>
       <c r="K9">
-        <v>87.33025349</v>
+        <v>116.8878995</v>
       </c>
       <c r="L9">
-        <v>85.44983701</v>
+        <v>114.68104</v>
       </c>
       <c r="M9">
-        <v>2.485029682</v>
+        <v>2.479621226</v>
       </c>
       <c r="N9">
-        <v>-0.00574689182663917</v>
+        <v>-0.007562546711689411</v>
       </c>
       <c r="O9">
-        <v>-0.01755702061578445</v>
+        <v>-0.01766512406933169</v>
       </c>
       <c r="P9">
-        <v>0.5741683961906094</v>
+        <v>0.5586421903778299</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1838,31 +1838,31 @@
         <v>1000000</v>
       </c>
       <c r="H10">
-        <v>82.10540107</v>
+        <v>107.1746717</v>
       </c>
       <c r="I10">
-        <v>79.16752656</v>
+        <v>103.8017223</v>
       </c>
       <c r="J10">
-        <v>3.911840091</v>
+        <v>3.864827963</v>
       </c>
       <c r="K10">
-        <v>82.60870607</v>
+        <v>108.0075627</v>
       </c>
       <c r="L10">
-        <v>80.68656278</v>
+        <v>105.7820115</v>
       </c>
       <c r="M10">
-        <v>2.485328691</v>
+        <v>2.480873688</v>
       </c>
       <c r="N10">
-        <v>-0.006092638705338306</v>
+        <v>-0.007711413711958426</v>
       </c>
       <c r="O10">
-        <v>-0.01882638406771408</v>
+        <v>-0.01872047214757305</v>
       </c>
       <c r="P10">
-        <v>0.5739729337072222</v>
+        <v>0.5578495518309516</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1888,31 +1888,31 @@
         <v>1000000</v>
       </c>
       <c r="H11">
-        <v>77.84650891</v>
+        <v>99.59610486</v>
       </c>
       <c r="I11">
-        <v>74.8567242</v>
+        <v>96.20254663999999</v>
       </c>
       <c r="J11">
-        <v>3.911825002</v>
+        <v>3.864812474</v>
       </c>
       <c r="K11">
-        <v>78.34142401</v>
+        <v>100.3735275</v>
       </c>
       <c r="L11">
-        <v>76.38247407999999</v>
+        <v>98.13198418</v>
       </c>
       <c r="M11">
-        <v>2.485198578</v>
+        <v>2.481504504</v>
       </c>
       <c r="N11">
-        <v>-0.006317412610942915</v>
+        <v>-0.007745295591011261</v>
       </c>
       <c r="O11">
-        <v>-0.01997513039970376</v>
+        <v>-0.01966165828728084</v>
       </c>
       <c r="P11">
-        <v>0.5740492677845079</v>
+        <v>0.5574472936761592</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1938,31 +1938,31 @@
         <v>1000000</v>
       </c>
       <c r="H12">
-        <v>74.02762736</v>
+        <v>93.08337397</v>
       </c>
       <c r="I12">
-        <v>70.99235723</v>
+        <v>89.67218576</v>
       </c>
       <c r="J12">
-        <v>3.911810021</v>
+        <v>3.86479871</v>
       </c>
       <c r="K12">
-        <v>74.5073472</v>
+        <v>93.80414768999999</v>
       </c>
       <c r="L12">
-        <v>72.51599451</v>
+        <v>91.54884068</v>
       </c>
       <c r="M12">
-        <v>2.484723541</v>
+        <v>2.481654999</v>
       </c>
       <c r="N12">
-        <v>-0.006438557511815443</v>
+        <v>-0.007683815031100539</v>
       </c>
       <c r="O12">
-        <v>-0.02101105129006942</v>
+        <v>-0.02049894795019476</v>
       </c>
       <c r="P12">
-        <v>0.5743441700663631</v>
+        <v>0.5573472991037625</v>
       </c>
     </row>
   </sheetData>
@@ -2051,31 +2051,31 @@
         <v>1000000</v>
       </c>
       <c r="H2">
-        <v>3.897979036</v>
+        <v>3.851195815</v>
       </c>
       <c r="I2">
-        <v>3.926875221</v>
+        <v>3.879402118</v>
       </c>
       <c r="J2">
-        <v>3.912030224</v>
+        <v>3.864993469</v>
       </c>
       <c r="K2">
-        <v>2.513051873</v>
+        <v>2.492918977</v>
       </c>
       <c r="L2">
-        <v>2.838649835</v>
+        <v>2.813777617</v>
       </c>
       <c r="M2">
-        <v>2.512932193</v>
+        <v>2.493685807</v>
       </c>
       <c r="N2">
-        <v>0.5510937429822006</v>
+        <v>0.5448539846387475</v>
       </c>
       <c r="O2">
-        <v>0.3833602061735099</v>
+        <v>0.3787166741827131</v>
       </c>
       <c r="P2">
-        <v>0.5567591656063439</v>
+        <v>0.549911964911785</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2101,31 +2101,31 @@
         <v>1000000</v>
       </c>
       <c r="H3">
-        <v>3.897956793</v>
+        <v>3.851174163</v>
       </c>
       <c r="I3">
-        <v>3.926852996</v>
+        <v>3.879380439</v>
       </c>
       <c r="J3">
-        <v>3.912020327</v>
+        <v>3.864983845</v>
       </c>
       <c r="K3">
-        <v>2.512982668</v>
+        <v>2.492850268</v>
       </c>
       <c r="L3">
-        <v>2.838611273</v>
+        <v>2.813738487</v>
       </c>
       <c r="M3">
-        <v>2.512932649</v>
+        <v>2.49368507</v>
       </c>
       <c r="N3">
-        <v>0.5511276072995186</v>
+        <v>0.5448878789217354</v>
       </c>
       <c r="O3">
-        <v>0.3833711693288269</v>
+        <v>0.3787281429754278</v>
       </c>
       <c r="P3">
-        <v>0.5567549446885315</v>
+        <v>0.5499085636343003</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2151,31 +2151,31 @@
         <v>1000000</v>
       </c>
       <c r="H4">
-        <v>3.897934294</v>
+        <v>3.851152261</v>
       </c>
       <c r="I4">
-        <v>3.926830537</v>
+        <v>3.879358532</v>
       </c>
       <c r="J4">
-        <v>3.912010321</v>
+        <v>3.864974116</v>
       </c>
       <c r="K4">
-        <v>2.512925117</v>
+        <v>2.492793158</v>
       </c>
       <c r="L4">
-        <v>2.838577789</v>
+        <v>2.813704618</v>
       </c>
       <c r="M4">
-        <v>2.512930177</v>
+        <v>2.493681706</v>
       </c>
       <c r="N4">
-        <v>0.5511541779062095</v>
+        <v>0.544914486242344</v>
       </c>
       <c r="O4">
-        <v>0.3833795755808332</v>
+        <v>0.3787369531196468</v>
       </c>
       <c r="P4">
-        <v>0.5567524942814995</v>
+        <v>0.5499067530152544</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2201,31 +2201,31 @@
         <v>1000000</v>
       </c>
       <c r="H5">
-        <v>3.897911763</v>
+        <v>3.851130328</v>
       </c>
       <c r="I5">
-        <v>3.926808069</v>
+        <v>3.879336616</v>
       </c>
       <c r="J5">
-        <v>3.912000305</v>
+        <v>3.864964377</v>
       </c>
       <c r="K5">
-        <v>2.512879623</v>
+        <v>2.492748053</v>
       </c>
       <c r="L5">
-        <v>2.838549278</v>
+        <v>2.813675912</v>
       </c>
       <c r="M5">
-        <v>2.512924363</v>
+        <v>2.493675321</v>
       </c>
       <c r="N5">
-        <v>0.5511732943046752</v>
+        <v>0.5449336419559927</v>
       </c>
       <c r="O5">
-        <v>0.3833855552322034</v>
+        <v>0.3787432303255258</v>
       </c>
       <c r="P5">
-        <v>0.5567521102504427</v>
+        <v>0.5499068160365373</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2251,31 +2251,31 @@
         <v>1000000</v>
       </c>
       <c r="H6">
-        <v>3.897889201</v>
+        <v>3.851108363</v>
       </c>
       <c r="I6">
-        <v>3.926785591</v>
+        <v>3.879314691</v>
       </c>
       <c r="J6">
-        <v>3.91199028</v>
+        <v>3.864954628</v>
       </c>
       <c r="K6">
-        <v>2.512845882</v>
+        <v>2.492714649</v>
       </c>
       <c r="L6">
-        <v>2.838525272</v>
+        <v>2.813651917</v>
       </c>
       <c r="M6">
-        <v>2.512914863</v>
+        <v>2.493665577</v>
       </c>
       <c r="N6">
-        <v>0.5511851438726634</v>
+        <v>0.544945533394665</v>
       </c>
       <c r="O6">
-        <v>0.3833893359114682</v>
+        <v>0.3787471959702255</v>
       </c>
       <c r="P6">
-        <v>0.5567540061145317</v>
+        <v>0.5499089627927283</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2301,31 +2301,31 @@
         <v>1000000</v>
       </c>
       <c r="H7">
-        <v>3.897866603</v>
+        <v>3.851086367</v>
       </c>
       <c r="I7">
-        <v>3.926763102</v>
+        <v>3.879292756</v>
       </c>
       <c r="J7">
-        <v>3.911980246</v>
+        <v>3.864944871</v>
       </c>
       <c r="K7">
-        <v>2.512823626</v>
+        <v>2.492692686</v>
       </c>
       <c r="L7">
-        <v>2.838505382</v>
+        <v>2.813632249</v>
       </c>
       <c r="M7">
-        <v>2.51290139</v>
+        <v>2.493652191</v>
       </c>
       <c r="N7">
-        <v>0.5511898896003139</v>
+        <v>0.5449503216458671</v>
       </c>
       <c r="O7">
-        <v>0.3833911067778978</v>
+        <v>0.3787490377886979</v>
       </c>
       <c r="P7">
-        <v>0.5567583597062676</v>
+        <v>0.5499133700157627</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2351,31 +2351,31 @@
         <v>1000000</v>
       </c>
       <c r="H8">
-        <v>3.897843978</v>
+        <v>3.85106434</v>
       </c>
       <c r="I8">
-        <v>3.926740606</v>
+        <v>3.879270812</v>
       </c>
       <c r="J8">
-        <v>3.911970202</v>
+        <v>3.864935104</v>
       </c>
       <c r="K8">
-        <v>2.512812639</v>
+        <v>2.492681955</v>
       </c>
       <c r="L8">
-        <v>2.838489288</v>
+        <v>2.81361659</v>
       </c>
       <c r="M8">
-        <v>2.512883705</v>
+        <v>2.493634927</v>
       </c>
       <c r="N8">
-        <v>0.551187668154673</v>
+        <v>0.5449481359927444</v>
       </c>
       <c r="O8">
-        <v>0.383391025148727</v>
+        <v>0.3787489119119816</v>
       </c>
       <c r="P8">
-        <v>0.5567653187515893</v>
+        <v>0.5499201836452302</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -2401,31 +2401,31 @@
         <v>1000000</v>
       </c>
       <c r="H9">
-        <v>3.897821318</v>
+        <v>3.851042281</v>
       </c>
       <c r="I9">
-        <v>3.9267181</v>
+        <v>3.879248858</v>
       </c>
       <c r="J9">
-        <v>3.911960148</v>
+        <v>3.864925329</v>
       </c>
       <c r="K9">
-        <v>2.512812756</v>
+        <v>2.492682288</v>
       </c>
       <c r="L9">
-        <v>2.838476739</v>
+        <v>2.813604699</v>
       </c>
       <c r="M9">
-        <v>2.512861622</v>
+        <v>2.493613605</v>
       </c>
       <c r="N9">
-        <v>0.5511785781463137</v>
+        <v>0.5449390800982815</v>
       </c>
       <c r="O9">
-        <v>0.3833892122657977</v>
+        <v>0.3787469360492421</v>
       </c>
       <c r="P9">
-        <v>0.556774998571728</v>
+        <v>0.5499295164456723</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -2451,31 +2451,31 @@
         <v>1000000</v>
       </c>
       <c r="H10">
-        <v>3.897798625</v>
+        <v>3.85102019</v>
       </c>
       <c r="I10">
-        <v>3.926695583</v>
+        <v>3.879226895</v>
       </c>
       <c r="J10">
-        <v>3.911950086</v>
+        <v>3.864915543</v>
       </c>
       <c r="K10">
-        <v>2.512823854</v>
+        <v>2.492693569</v>
       </c>
       <c r="L10">
-        <v>2.838467557</v>
+        <v>2.813596399</v>
       </c>
       <c r="M10">
-        <v>2.512835009</v>
+        <v>2.493588093</v>
       </c>
       <c r="N10">
-        <v>0.5511626964203437</v>
+        <v>0.5449232259803691</v>
       </c>
       <c r="O10">
-        <v>0.3833857545126065</v>
+        <v>0.3787431972754667</v>
       </c>
       <c r="P10">
-        <v>0.5567874818636771</v>
+        <v>0.5499414493715261</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -2501,31 +2501,31 @@
         <v>1000000</v>
       </c>
       <c r="H11">
-        <v>3.8977759</v>
+        <v>3.850998068</v>
       </c>
       <c r="I11">
-        <v>3.926673058</v>
+        <v>3.879204924</v>
       </c>
       <c r="J11">
-        <v>3.911940013</v>
+        <v>3.864905749</v>
       </c>
       <c r="K11">
-        <v>2.512845864</v>
+        <v>2.492715725</v>
       </c>
       <c r="L11">
-        <v>2.838461634</v>
+        <v>2.813591586</v>
       </c>
       <c r="M11">
-        <v>2.512803789</v>
+        <v>2.493558314</v>
       </c>
       <c r="N11">
-        <v>0.5511400662655209</v>
+        <v>0.5449006195842889</v>
       </c>
       <c r="O11">
-        <v>0.3833807055783512</v>
+        <v>0.3787377469076638</v>
       </c>
       <c r="P11">
-        <v>0.5568028152953411</v>
+        <v>0.549956031627821</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -2551,31 +2551,31 @@
         <v>1000000</v>
       </c>
       <c r="H12">
-        <v>3.897753372</v>
+        <v>3.850976136</v>
       </c>
       <c r="I12">
-        <v>3.926650748</v>
+        <v>3.879183161</v>
       </c>
       <c r="J12">
-        <v>3.911930032</v>
+        <v>3.864896043</v>
       </c>
       <c r="K12">
-        <v>2.512878373</v>
+        <v>2.492748351</v>
       </c>
       <c r="L12">
-        <v>2.838458947</v>
+        <v>2.81359022</v>
       </c>
       <c r="M12">
-        <v>2.512768313</v>
+        <v>2.493524604</v>
       </c>
       <c r="N12">
-        <v>0.5511110342147865</v>
+        <v>0.5448716010403249</v>
       </c>
       <c r="O12">
-        <v>0.3833741552436835</v>
+        <v>0.3787306813285695</v>
       </c>
       <c r="P12">
-        <v>0.5568208225809476</v>
+        <v>0.549973093026677</v>
       </c>
     </row>
   </sheetData>
@@ -2664,31 +2664,31 @@
         <v>65.89694</v>
       </c>
       <c r="H2">
-        <v>196.8781</v>
+        <v>442.6161</v>
       </c>
       <c r="I2">
-        <v>129.7775</v>
+        <v>315.6075</v>
       </c>
       <c r="J2">
-        <v>114.9416</v>
+        <v>155.2925</v>
       </c>
       <c r="K2">
-        <v>179.5238</v>
+        <v>359.0248</v>
       </c>
       <c r="L2">
-        <v>136.4096</v>
+        <v>275.2091</v>
       </c>
       <c r="M2">
-        <v>128.6708</v>
+        <v>187.7188</v>
       </c>
       <c r="N2">
-        <v>0.09666851971716282</v>
+        <v>0.2328287628041294</v>
       </c>
       <c r="O2">
-        <v>-0.04861901215163748</v>
+        <v>0.1467916576886449</v>
       </c>
       <c r="P2">
-        <v>-0.1067001992682102</v>
+        <v>-0.1727386921288651</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -2714,31 +2714,31 @@
         <v>65.89694</v>
       </c>
       <c r="H3">
-        <v>181.5502</v>
+        <v>372.1707</v>
       </c>
       <c r="I3">
-        <v>125.2864</v>
+        <v>271.3409</v>
       </c>
       <c r="J3">
-        <v>110.8316</v>
+        <v>148.6149</v>
       </c>
       <c r="K3">
-        <v>164.4299</v>
+        <v>297.6562</v>
       </c>
       <c r="L3">
-        <v>128.9443</v>
+        <v>237.0716</v>
       </c>
       <c r="M3">
-        <v>119.7288</v>
+        <v>168.4555</v>
       </c>
       <c r="N3">
-        <v>0.10411914134838</v>
+        <v>0.2503374698729608</v>
       </c>
       <c r="O3">
-        <v>-0.02836806279920864</v>
+        <v>0.1445525318089556</v>
       </c>
       <c r="P3">
-        <v>-0.07431127681894424</v>
+        <v>-0.1177794729171799</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -2764,31 +2764,31 @@
         <v>65.89694</v>
       </c>
       <c r="H4">
-        <v>167.2577</v>
+        <v>313.7785</v>
       </c>
       <c r="I4">
-        <v>120.4328</v>
+        <v>234.7126</v>
       </c>
       <c r="J4">
-        <v>106.9631</v>
+        <v>142.3573</v>
       </c>
       <c r="K4">
-        <v>151.0567</v>
+        <v>252.3673</v>
       </c>
       <c r="L4">
-        <v>121.6696</v>
+        <v>207.1903</v>
       </c>
       <c r="M4">
-        <v>111.8398</v>
+        <v>152.6401</v>
       </c>
       <c r="N4">
-        <v>0.1072511182886955</v>
+        <v>0.2433405595732887</v>
       </c>
       <c r="O4">
-        <v>-0.01016523437243159</v>
+        <v>0.1328358518714438</v>
       </c>
       <c r="P4">
-        <v>-0.04360433405639137</v>
+        <v>-0.06736630806714605</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -2814,31 +2814,31 @@
         <v>65.89694</v>
       </c>
       <c r="H5">
-        <v>154.3048</v>
+        <v>268.1742</v>
       </c>
       <c r="I5">
-        <v>115.5261</v>
+        <v>206.1348</v>
       </c>
       <c r="J5">
-        <v>103.3514</v>
+        <v>136.5473</v>
       </c>
       <c r="K5">
-        <v>139.3503</v>
+        <v>218.3595</v>
       </c>
       <c r="L5">
-        <v>114.8125</v>
+        <v>183.6805</v>
       </c>
       <c r="M5">
-        <v>104.8979</v>
+        <v>139.5292</v>
       </c>
       <c r="N5">
-        <v>0.1073158794778339</v>
+        <v>0.22813159033612</v>
       </c>
       <c r="O5">
-        <v>0.006215351115949915</v>
+        <v>0.1222465095641618</v>
       </c>
       <c r="P5">
-        <v>-0.01474290715066754</v>
+        <v>-0.02137115385166686</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -2864,31 +2864,31 @@
         <v>65.89694</v>
       </c>
       <c r="H6">
-        <v>142.6869</v>
+        <v>232.6848</v>
       </c>
       <c r="I6">
-        <v>110.7299</v>
+        <v>183.8692</v>
       </c>
       <c r="J6">
-        <v>99.97211</v>
+        <v>131.1458</v>
       </c>
       <c r="K6">
-        <v>129.0894</v>
+        <v>192.0872</v>
       </c>
       <c r="L6">
-        <v>108.4361</v>
+        <v>164.8201</v>
       </c>
       <c r="M6">
-        <v>98.74467</v>
+        <v>128.4809</v>
       </c>
       <c r="N6">
-        <v>0.10533397784791</v>
+        <v>0.2113498452786026</v>
       </c>
       <c r="O6">
-        <v>0.02115347195260623</v>
+        <v>0.1155751027938947</v>
       </c>
       <c r="P6">
-        <v>0.01243044308113037</v>
+        <v>0.0207416043941163</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -2914,31 +2914,31 @@
         <v>65.89694</v>
       </c>
       <c r="H7">
-        <v>132.321</v>
+        <v>204.7348</v>
       </c>
       <c r="I7">
-        <v>106.1358</v>
+        <v>166.2643</v>
       </c>
       <c r="J7">
-        <v>96.80383</v>
+        <v>126.1166</v>
       </c>
       <c r="K7">
-        <v>120.0686</v>
+        <v>171.2738</v>
       </c>
       <c r="L7">
-        <v>102.5522</v>
+        <v>149.4031</v>
       </c>
       <c r="M7">
-        <v>93.25503</v>
+        <v>119.0439</v>
       </c>
       <c r="N7">
-        <v>0.1020449976096997</v>
+        <v>0.1953655491966665</v>
       </c>
       <c r="O7">
-        <v>0.03494415526921903</v>
+        <v>0.112857096004032</v>
       </c>
       <c r="P7">
-        <v>0.03805478374732173</v>
+        <v>0.05941253604762623</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -2964,31 +2964,31 @@
         <v>65.89694</v>
       </c>
       <c r="H8">
-        <v>123.0896</v>
+        <v>182.3584</v>
       </c>
       <c r="I8">
-        <v>101.789</v>
+        <v>152.0742</v>
       </c>
       <c r="J8">
-        <v>93.82765000000001</v>
+        <v>121.427</v>
       </c>
       <c r="K8">
-        <v>112.107</v>
+        <v>154.4242</v>
       </c>
       <c r="L8">
-        <v>97.14472000000001</v>
+        <v>136.5867</v>
       </c>
       <c r="M8">
-        <v>88.32872</v>
+        <v>110.8903</v>
       </c>
       <c r="N8">
-        <v>0.09796533668727203</v>
+        <v>0.1808926321133603</v>
       </c>
       <c r="O8">
-        <v>0.04780784792009277</v>
+        <v>0.1133895174273921</v>
       </c>
       <c r="P8">
-        <v>0.06225528910641976</v>
+        <v>0.09501913152006994</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3014,31 +3014,31 @@
         <v>65.89694</v>
       </c>
       <c r="H9">
-        <v>114.8662</v>
+        <v>164.142</v>
       </c>
       <c r="I9">
-        <v>97.70628000000001</v>
+        <v>140.4133</v>
       </c>
       <c r="J9">
-        <v>91.02683</v>
+        <v>117.0473</v>
       </c>
       <c r="K9">
-        <v>105.0491</v>
+        <v>140.5286</v>
       </c>
       <c r="L9">
-        <v>92.18367000000001</v>
+        <v>125.7737</v>
       </c>
       <c r="M9">
-        <v>83.88455999999999</v>
+        <v>103.7753</v>
       </c>
       <c r="N9">
-        <v>0.09345249031167341</v>
+        <v>0.1680326993935753</v>
       </c>
       <c r="O9">
-        <v>0.05990876692151657</v>
+        <v>0.11639635313265</v>
       </c>
       <c r="P9">
-        <v>0.08514403604191297</v>
+        <v>0.1278917044807387</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3064,31 +3064,31 @@
         <v>65.89694</v>
       </c>
       <c r="H10">
-        <v>107.5286</v>
+        <v>149.0789</v>
       </c>
       <c r="I10">
-        <v>93.88724999999999</v>
+        <v>130.6582</v>
       </c>
       <c r="J10">
-        <v>88.3865</v>
+        <v>112.9504</v>
       </c>
       <c r="K10">
-        <v>98.76356</v>
+        <v>128.8858</v>
       </c>
       <c r="L10">
-        <v>87.6332</v>
+        <v>116.5328</v>
       </c>
       <c r="M10">
-        <v>79.85607</v>
+        <v>97.51254</v>
       </c>
       <c r="N10">
-        <v>0.08874771221288499</v>
+        <v>0.1566743582303095</v>
       </c>
       <c r="O10">
-        <v>0.07136621736967259</v>
+        <v>0.1212139414825697</v>
       </c>
       <c r="P10">
-        <v>0.1068225621421139</v>
+        <v>0.1583166636824351</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3114,31 +3114,31 @@
         <v>65.89694</v>
       </c>
       <c r="H11">
-        <v>100.965</v>
+        <v>136.4464</v>
       </c>
       <c r="I11">
-        <v>90.32214999999999</v>
+        <v>122.3666</v>
       </c>
       <c r="J11">
-        <v>85.89339</v>
+        <v>109.1121</v>
       </c>
       <c r="K11">
-        <v>93.14001</v>
+        <v>118.9964</v>
       </c>
       <c r="L11">
-        <v>83.45623000000001</v>
+        <v>108.5462</v>
       </c>
       <c r="M11">
-        <v>76.18832</v>
+        <v>91.95777</v>
       </c>
       <c r="N11">
-        <v>0.08401319690646371</v>
+        <v>0.1466430917237834</v>
       </c>
       <c r="O11">
-        <v>0.08226971191964924</v>
+        <v>0.1273227436796498</v>
       </c>
       <c r="P11">
-        <v>0.1273826486789575</v>
+        <v>0.1865457372443895</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3161,34 +3161,34 @@
         <v>13.33</v>
       </c>
       <c r="G12">
-        <v>65.8969</v>
+        <v>65.89694</v>
       </c>
       <c r="H12">
-        <v>95.13200000000001</v>
+        <v>125.818</v>
       </c>
       <c r="I12">
-        <v>87.02849999999999</v>
+        <v>115.2866</v>
       </c>
       <c r="J12">
-        <v>83.5586</v>
+        <v>105.5455</v>
       </c>
       <c r="K12">
-        <v>88.1339</v>
+        <v>110.5753</v>
       </c>
       <c r="L12">
-        <v>79.6537</v>
+        <v>101.641</v>
       </c>
       <c r="M12">
-        <v>72.8677</v>
+        <v>87.04433</v>
       </c>
       <c r="N12">
-        <v>0.07940304468541626</v>
+        <v>0.1378490494712653</v>
       </c>
       <c r="O12">
-        <v>0.09258578069819724</v>
+        <v>0.1342529097509863</v>
       </c>
       <c r="P12">
-        <v>0.1467165836166093</v>
+        <v>0.2125488242600064</v>
       </c>
     </row>
   </sheetData>
@@ -3277,31 +3277,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H2">
-        <v>112.9311452</v>
+        <v>167.2707387</v>
       </c>
       <c r="I2">
-        <v>0.01378007885</v>
+        <v>0.01527411528</v>
       </c>
       <c r="J2">
-        <v>112.9377289</v>
+        <v>167.2702722</v>
       </c>
       <c r="K2">
-        <v>112.2898668</v>
+        <v>166.4813904</v>
       </c>
       <c r="L2">
-        <v>2.836531234</v>
+        <v>2.809826995</v>
       </c>
       <c r="M2">
-        <v>114.3660299</v>
+        <v>169.0466344</v>
       </c>
       <c r="N2">
-        <v>0.005710919589406838</v>
+        <v>0.00474136056951144</v>
       </c>
       <c r="O2">
-        <v>-0.9951419259252902</v>
+        <v>-0.9945640371072028</v>
       </c>
       <c r="P2">
-        <v>-0.0124888570605178</v>
+        <v>-0.01050811929089784</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3327,31 +3327,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H3">
-        <v>107.424756</v>
+        <v>155.7135033</v>
       </c>
       <c r="I3">
-        <v>0.01408864884</v>
+        <v>0.01516578706</v>
       </c>
       <c r="J3">
-        <v>107.4318735</v>
+        <v>155.7143083</v>
       </c>
       <c r="K3">
-        <v>104.1017287</v>
+        <v>148.1898241</v>
       </c>
       <c r="L3">
-        <v>2.836580692</v>
+        <v>2.810203111</v>
       </c>
       <c r="M3">
-        <v>106.2300728</v>
+        <v>150.7596195</v>
       </c>
       <c r="N3">
-        <v>0.03192096175056128</v>
+        <v>0.05077055220014937</v>
       </c>
       <c r="O3">
-        <v>-0.9950332282526867</v>
+        <v>-0.994603312835063</v>
       </c>
       <c r="P3">
-        <v>0.01131318720135521</v>
+        <v>0.03286482691076296</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3377,31 +3377,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H4">
-        <v>102.3804994</v>
+        <v>145.5214664</v>
       </c>
       <c r="I4">
-        <v>0.01438271187</v>
+        <v>0.01515556183</v>
       </c>
       <c r="J4">
-        <v>102.3881057</v>
+        <v>145.5233885</v>
       </c>
       <c r="K4">
-        <v>96.89130439</v>
+        <v>133.3590702</v>
       </c>
       <c r="L4">
-        <v>2.836631948</v>
+        <v>2.810504998</v>
       </c>
       <c r="M4">
-        <v>99.06421874</v>
+        <v>135.9327774</v>
       </c>
       <c r="N4">
-        <v>0.05665312325557394</v>
+        <v>0.09120036741227983</v>
       </c>
       <c r="O4">
-        <v>-0.99492965173711</v>
+        <v>-0.9946075307317422</v>
       </c>
       <c r="P4">
-        <v>0.0335528508908321</v>
+        <v>0.07055407300167486</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3427,31 +3427,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H5">
-        <v>97.78728502</v>
+        <v>136.5573839</v>
       </c>
       <c r="I5">
-        <v>0.0146593555</v>
+        <v>0.01521221926</v>
       </c>
       <c r="J5">
-        <v>97.7953361</v>
+        <v>136.5602853</v>
       </c>
       <c r="K5">
-        <v>90.56355021</v>
+        <v>121.2029348</v>
       </c>
       <c r="L5">
-        <v>2.836683733</v>
+        <v>2.810750946</v>
       </c>
       <c r="M5">
-        <v>92.77461783</v>
+        <v>123.7800927</v>
       </c>
       <c r="N5">
-        <v>0.07976426270005428</v>
+        <v>0.126683806174634</v>
       </c>
       <c r="O5">
-        <v>-0.994832220691555</v>
+        <v>-0.9945878451871915</v>
       </c>
       <c r="P5">
-        <v>0.05411736946413465</v>
+        <v>0.1032491761900256</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3477,31 +3477,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H6">
-        <v>93.58737223999999</v>
+        <v>128.61578</v>
       </c>
       <c r="I6">
-        <v>0.01491927943</v>
+        <v>0.01531278019</v>
       </c>
       <c r="J6">
-        <v>93.59582978</v>
+        <v>128.6195465</v>
       </c>
       <c r="K6">
-        <v>84.97215631</v>
+        <v>111.0568004</v>
       </c>
       <c r="L6">
-        <v>2.836735047</v>
+        <v>2.810956153</v>
       </c>
       <c r="M6">
-        <v>87.21627966</v>
+        <v>113.6370996</v>
       </c>
       <c r="N6">
-        <v>0.1013886937100842</v>
+        <v>0.1581080990696361</v>
       </c>
       <c r="O6">
-        <v>-0.9947406863232512</v>
+        <v>-0.9945524656534904</v>
       </c>
       <c r="P6">
-        <v>0.0731463225084784</v>
+        <v>0.1318446788305746</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3527,31 +3527,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H7">
-        <v>89.73244674</v>
+        <v>121.5338235</v>
       </c>
       <c r="I7">
-        <v>0.01516339211</v>
+        <v>0.01544131086</v>
       </c>
       <c r="J7">
-        <v>89.74127717</v>
+        <v>121.5383596</v>
       </c>
       <c r="K7">
-        <v>79.99992508</v>
+        <v>102.4593831</v>
       </c>
       <c r="L7">
-        <v>2.836786108</v>
+        <v>2.811131097</v>
       </c>
       <c r="M7">
-        <v>82.27300706</v>
+        <v>105.0426182</v>
       </c>
       <c r="N7">
-        <v>0.1216566346814384</v>
+        <v>0.1861658720059188</v>
       </c>
       <c r="O7">
-        <v>-0.9946547284382007</v>
+        <v>-0.9945070826200604</v>
       </c>
       <c r="P7">
-        <v>0.09077424512457107</v>
+        <v>0.1570385590407913</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3577,31 +3577,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H8">
-        <v>86.1817779</v>
+        <v>115.1809973</v>
       </c>
       <c r="I8">
-        <v>0.01539269116</v>
+        <v>0.01558680598</v>
       </c>
       <c r="J8">
-        <v>86.19095162000001</v>
+        <v>115.1862222</v>
       </c>
       <c r="K8">
-        <v>75.55229041</v>
+        <v>95.08051336</v>
       </c>
       <c r="L8">
-        <v>2.836836955</v>
+        <v>2.811283022</v>
       </c>
       <c r="M8">
-        <v>77.85100242</v>
+        <v>97.6665524</v>
       </c>
       <c r="N8">
-        <v>0.1406904732115586</v>
+        <v>0.2114048739292588</v>
       </c>
       <c r="O8">
-        <v>-0.994573995120562</v>
+        <v>-0.9944556254713511</v>
       </c>
       <c r="P8">
-        <v>0.107127062475145</v>
+        <v>0.1793824945130346</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3627,31 +3627,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H9">
-        <v>82.90079003</v>
+        <v>109.4515859</v>
       </c>
       <c r="I9">
-        <v>0.01560819204</v>
+        <v>0.01574169084</v>
       </c>
       <c r="J9">
-        <v>82.91028083</v>
+        <v>109.4574306</v>
       </c>
       <c r="K9">
-        <v>71.55236232</v>
+        <v>88.67764344</v>
       </c>
       <c r="L9">
-        <v>2.836887747</v>
+        <v>2.811417651</v>
       </c>
       <c r="M9">
-        <v>73.87397409</v>
+        <v>91.26640822</v>
       </c>
       <c r="N9">
-        <v>0.1586031172422652</v>
+        <v>0.2342635827265281</v>
       </c>
       <c r="O9">
-        <v>-0.9944981284308814</v>
+        <v>-0.9944007995985936</v>
       </c>
       <c r="P9">
-        <v>0.1223205716399005</v>
+        <v>0.1993178293611607</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -3677,31 +3677,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H10">
-        <v>79.85994368999999</v>
+        <v>104.2591244</v>
       </c>
       <c r="I10">
-        <v>0.01581088659</v>
+        <v>0.01590077546</v>
       </c>
       <c r="J10">
-        <v>79.86972824</v>
+        <v>104.2655298</v>
       </c>
       <c r="K10">
-        <v>67.93714025</v>
+        <v>83.06859624000001</v>
       </c>
       <c r="L10">
-        <v>2.836938833</v>
+        <v>2.811539028</v>
       </c>
       <c r="M10">
-        <v>70.27939317000001</v>
+        <v>85.66004814999999</v>
       </c>
       <c r="N10">
-        <v>0.1754975760846807</v>
+        <v>0.2550967407559986</v>
       </c>
       <c r="O10">
-        <v>-0.9944267791726477</v>
+        <v>-0.9943444585681918</v>
       </c>
       <c r="P10">
-        <v>0.1364601291704635</v>
+        <v>0.2172013914517045</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -3727,31 +3727,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H11">
-        <v>77.0338546</v>
+        <v>99.53226168</v>
       </c>
       <c r="I11">
-        <v>0.01600172011</v>
+        <v>0.01606052843</v>
       </c>
       <c r="J11">
-        <v>77.04391206</v>
+        <v>99.53917679</v>
       </c>
       <c r="K11">
-        <v>64.65461327</v>
+        <v>78.1138839</v>
       </c>
       <c r="L11">
-        <v>2.836990525</v>
+        <v>2.811650403</v>
       </c>
       <c r="M11">
-        <v>67.01562457</v>
+        <v>80.70801435</v>
       </c>
       <c r="N11">
-        <v>0.1914672550635148</v>
+        <v>0.2741942496089354</v>
       </c>
       <c r="O11">
-        <v>-0.9943596145390723</v>
+        <v>-0.994287864375719</v>
       </c>
       <c r="P11">
-        <v>0.1496410360172817</v>
+        <v>0.2333245662362154</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -3777,31 +3777,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H12">
-        <v>74.42603004999999</v>
+        <v>95.25299649999999</v>
       </c>
       <c r="I12">
-        <v>0.01617983256</v>
+        <v>0.01621700708</v>
       </c>
       <c r="J12">
-        <v>74.43633924</v>
+        <v>95.26037228</v>
       </c>
       <c r="K12">
-        <v>61.69015674</v>
+        <v>73.74658409</v>
       </c>
       <c r="L12">
-        <v>2.837042792</v>
+        <v>2.811753221</v>
       </c>
       <c r="M12">
-        <v>64.06818158</v>
+        <v>76.34338027</v>
       </c>
       <c r="N12">
-        <v>0.2064490347086772</v>
+        <v>0.2916258790204257</v>
       </c>
       <c r="O12">
-        <v>-0.9942969374287816</v>
+        <v>-0.9942324216226087</v>
       </c>
       <c r="P12">
-        <v>0.1618300598566792</v>
+        <v>0.2477882423216941</v>
       </c>
     </row>
   </sheetData>
@@ -3890,31 +3890,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H2">
-        <v>0.02090029987</v>
+        <v>0.02141568228</v>
       </c>
       <c r="I2">
-        <v>112.94295</v>
+        <v>167.2780086</v>
       </c>
       <c r="J2">
-        <v>112.9259145</v>
+        <v>167.2629947</v>
       </c>
       <c r="K2">
-        <v>2.579911211</v>
+        <v>2.557645897</v>
       </c>
       <c r="L2">
-        <v>114.3976277</v>
+        <v>169.1175417</v>
       </c>
       <c r="M2">
-        <v>112.5556407</v>
+        <v>166.8377347</v>
       </c>
       <c r="N2">
-        <v>-0.9918988297810842</v>
+        <v>-0.9916267993528269</v>
       </c>
       <c r="O2">
-        <v>-0.01271597785064913</v>
+        <v>-0.01087724597642972</v>
       </c>
       <c r="P2">
-        <v>0.00328969563584037</v>
+        <v>0.002548943743240651</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -3940,31 +3940,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H3">
-        <v>0.02041122667</v>
+        <v>0.02079639477</v>
       </c>
       <c r="I3">
-        <v>107.4365095</v>
+        <v>155.7210303</v>
       </c>
       <c r="J3">
-        <v>107.4201158</v>
+        <v>155.7067798</v>
       </c>
       <c r="K3">
-        <v>2.569546847</v>
+        <v>2.542919935</v>
       </c>
       <c r="L3">
-        <v>106.4740322</v>
+        <v>151.0846621</v>
       </c>
       <c r="M3">
-        <v>104.5874385</v>
+        <v>148.8048646</v>
       </c>
       <c r="N3">
-        <v>-0.9920564878224227</v>
+        <v>-0.9918218444537853</v>
       </c>
       <c r="O3">
-        <v>0.009039549645232684</v>
+        <v>0.03068721957316402</v>
       </c>
       <c r="P3">
-        <v>0.02708429750863437</v>
+        <v>0.0463823223693185</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -3990,31 +3990,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H4">
-        <v>0.01997069615</v>
+        <v>0.02025612841</v>
       </c>
       <c r="I4">
-        <v>102.3922051</v>
+        <v>145.529216</v>
       </c>
       <c r="J4">
-        <v>102.3763993</v>
+        <v>145.5156397</v>
       </c>
       <c r="K4">
-        <v>2.561264915</v>
+        <v>2.531824662</v>
       </c>
       <c r="L4">
-        <v>99.45621604</v>
+        <v>136.4123647</v>
       </c>
       <c r="M4">
-        <v>97.53157234</v>
+        <v>134.1324026</v>
       </c>
       <c r="N4">
-        <v>-0.9922027994710574</v>
+        <v>-0.9919993952527508</v>
       </c>
       <c r="O4">
-        <v>0.02952041789745128</v>
+        <v>0.06683302734359811</v>
       </c>
       <c r="P4">
-        <v>0.04967444739956303</v>
+        <v>0.08486567659528378</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4040,31 +4040,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H5">
-        <v>0.01957621646</v>
+        <v>0.01978600866</v>
       </c>
       <c r="I5">
-        <v>97.79894652</v>
+        <v>136.5653271</v>
       </c>
       <c r="J5">
-        <v>97.78367608000001</v>
+        <v>136.5523443</v>
       </c>
       <c r="K5">
-        <v>2.554748065</v>
+        <v>2.523458902</v>
       </c>
       <c r="L5">
-        <v>93.26850523</v>
+        <v>124.3530818</v>
       </c>
       <c r="M5">
-        <v>91.31133543</v>
+        <v>122.0727699</v>
       </c>
       <c r="N5">
-        <v>-0.9923373201732908</v>
+        <v>-0.9921591714276311</v>
       </c>
       <c r="O5">
-        <v>0.04857418137910473</v>
+        <v>0.09820621349490345</v>
       </c>
       <c r="P5">
-        <v>0.07088211578026646</v>
+        <v>0.1186142856581482</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4090,31 +4090,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H6">
-        <v>0.01922141689</v>
+        <v>0.01937384757</v>
       </c>
       <c r="I6">
-        <v>93.59899276</v>
+        <v>128.6238946</v>
       </c>
       <c r="J6">
-        <v>93.58421195</v>
+        <v>128.6114384</v>
       </c>
       <c r="K6">
-        <v>2.549659561</v>
+        <v>2.517118578</v>
       </c>
       <c r="L6">
-        <v>87.77987087</v>
+        <v>114.2658493</v>
       </c>
       <c r="M6">
-        <v>85.79455642000001</v>
+        <v>111.9850015</v>
       </c>
       <c r="N6">
-        <v>-0.9924611829814405</v>
+        <v>-0.992303164523384</v>
       </c>
       <c r="O6">
-        <v>0.06629221292223127</v>
+        <v>0.1256547375086985</v>
       </c>
       <c r="P6">
-        <v>0.09079428643312042</v>
+        <v>0.1484702118792221</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4140,31 +4140,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H7">
-        <v>0.01890100573</v>
+        <v>0.0190100271</v>
       </c>
       <c r="I7">
-        <v>89.74402976</v>
+        <v>121.5420888</v>
       </c>
       <c r="J7">
-        <v>89.72969839</v>
+        <v>121.5301025</v>
       </c>
       <c r="K7">
-        <v>2.545738368</v>
+        <v>2.512323543</v>
       </c>
       <c r="L7">
-        <v>82.88364548</v>
+        <v>105.7033486</v>
       </c>
       <c r="M7">
-        <v>80.87369866</v>
+        <v>103.421781</v>
       </c>
       <c r="N7">
-        <v>-0.9925754327437626</v>
+        <v>-0.9924332886371394</v>
       </c>
       <c r="O7">
-        <v>0.08277126615594425</v>
+        <v>0.1498414232829706</v>
       </c>
       <c r="P7">
-        <v>0.1095040770576276</v>
+        <v>0.1750919518587676</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4190,31 +4190,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H8">
-        <v>0.01861055647</v>
+        <v>0.01868687546</v>
       </c>
       <c r="I8">
-        <v>86.19332742</v>
+        <v>115.1893971</v>
       </c>
       <c r="J8">
-        <v>86.17941007</v>
+        <v>115.1778327</v>
       </c>
       <c r="K8">
-        <v>2.542780105</v>
+        <v>2.50873531</v>
       </c>
       <c r="L8">
-        <v>78.49262312</v>
+        <v>98.34396676</v>
       </c>
       <c r="M8">
-        <v>76.46088691999999</v>
+        <v>96.06149927</v>
       </c>
       <c r="N8">
-        <v>-0.992681020103388</v>
+        <v>-0.9925512765792738</v>
       </c>
       <c r="O8">
-        <v>0.09810736339167968</v>
+        <v>0.1712909382749408</v>
       </c>
       <c r="P8">
-        <v>0.1271045045575834</v>
+        <v>0.1990009897333554</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4240,31 +4240,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H9">
-        <v>0.01834634145</v>
+        <v>0.01839821205</v>
       </c>
       <c r="I9">
-        <v>82.91230722</v>
+        <v>109.4601064</v>
       </c>
       <c r="J9">
-        <v>82.89877248000001</v>
+        <v>109.4489227</v>
       </c>
       <c r="K9">
-        <v>2.540623445</v>
+        <v>2.506109088</v>
       </c>
       <c r="L9">
-        <v>74.53512794</v>
+        <v>91.95056517</v>
       </c>
       <c r="M9">
-        <v>72.48392353</v>
+        <v>89.66702072</v>
       </c>
       <c r="N9">
-        <v>-0.9927788033735948</v>
+        <v>-0.992658654749669</v>
       </c>
       <c r="O9">
-        <v>0.1123923646678859</v>
+        <v>0.1904234215159854</v>
       </c>
       <c r="P9">
-        <v>0.1436849503005926</v>
+        <v>0.2206151361019593</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4290,31 +4290,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H10">
-        <v>0.01810520247</v>
+        <v>0.01813901081</v>
       </c>
       <c r="I10">
-        <v>79.87143132999999</v>
+        <v>104.2677536</v>
       </c>
       <c r="J10">
-        <v>79.85825122</v>
+        <v>104.2569153</v>
       </c>
       <c r="K10">
-        <v>2.539140275</v>
+        <v>2.504263114</v>
       </c>
       <c r="L10">
-        <v>70.95190365000001</v>
+        <v>86.34447197</v>
       </c>
       <c r="M10">
-        <v>68.8831404</v>
+        <v>84.0596766</v>
       </c>
       <c r="N10">
-        <v>-0.9928695540580167</v>
+        <v>-0.9927567472009652</v>
       </c>
       <c r="O10">
-        <v>0.1257123096231399</v>
+        <v>0.2075787971258585</v>
       </c>
       <c r="P10">
-        <v>0.1593294201784098</v>
+        <v>0.240272619607009</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4340,31 +4340,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H11">
-        <v>0.01788444868</v>
+        <v>0.01790514918</v>
       </c>
       <c r="I11">
-        <v>77.04531451</v>
+        <v>99.54098913999999</v>
       </c>
       <c r="J11">
-        <v>77.03246403</v>
+        <v>99.53046539</v>
       </c>
       <c r="K11">
-        <v>2.538227805</v>
+        <v>2.503059911</v>
       </c>
       <c r="L11">
-        <v>67.69365679000001</v>
+        <v>81.38851825</v>
       </c>
       <c r="M11">
-        <v>65.60891565999999</v>
+        <v>79.10230048</v>
       </c>
       <c r="N11">
-        <v>-0.992953962349333</v>
+        <v>-0.9928466957177837</v>
       </c>
       <c r="O11">
-        <v>0.1381467358014179</v>
+        <v>0.2230347877109802</v>
       </c>
       <c r="P11">
-        <v>0.1741157928778975</v>
+        <v>0.2582499470437652</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -4390,31 +4390,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H12">
-        <v>0.01768371896</v>
+        <v>0.017695239</v>
       </c>
       <c r="I12">
-        <v>74.43746486000001</v>
+        <v>95.2618128</v>
       </c>
       <c r="J12">
-        <v>74.42491857</v>
+        <v>95.25157400000001</v>
       </c>
       <c r="K12">
-        <v>2.537805263</v>
+        <v>2.502397757</v>
       </c>
       <c r="L12">
-        <v>64.74759654</v>
+        <v>77.01738949</v>
       </c>
       <c r="M12">
-        <v>62.6483345</v>
+        <v>74.72959667000001</v>
       </c>
       <c r="N12">
-        <v>-0.9930318849843129</v>
+        <v>-0.9929286865165616</v>
       </c>
       <c r="O12">
-        <v>0.1496560310777522</v>
+        <v>0.2368870644774174</v>
       </c>
       <c r="P12">
-        <v>0.1879792042995174</v>
+        <v>0.2746164604717918</v>
       </c>
     </row>
   </sheetData>
@@ -4503,31 +4503,31 @@
         <v>1000000</v>
       </c>
       <c r="H2">
-        <v>139.275249</v>
+        <v>267.7854238</v>
       </c>
       <c r="I2">
-        <v>139.2606825</v>
+        <v>267.7737734</v>
       </c>
       <c r="J2">
-        <v>0.01691225832</v>
+        <v>0.01691249055</v>
       </c>
       <c r="K2">
-        <v>140.053847</v>
+        <v>269.1154538</v>
       </c>
       <c r="L2">
-        <v>138.7366012</v>
+        <v>267.2807767</v>
       </c>
       <c r="M2">
-        <v>2.459095648</v>
+        <v>2.416368863</v>
       </c>
       <c r="N2">
-        <v>-0.005559276069010716</v>
+        <v>-0.004942228256384219</v>
       </c>
       <c r="O2">
-        <v>0.003777527310507632</v>
+        <v>0.001844489925863015</v>
       </c>
       <c r="P2">
-        <v>-0.9931225699440545</v>
+        <v>-0.9930008655512127</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -4553,31 +4553,31 @@
         <v>1000000</v>
       </c>
       <c r="H3">
-        <v>128.5386169</v>
+        <v>225.9656374</v>
       </c>
       <c r="I3">
-        <v>128.5245505</v>
+        <v>225.9547113</v>
       </c>
       <c r="J3">
-        <v>0.0169121968</v>
+        <v>0.0169124293</v>
       </c>
       <c r="K3">
-        <v>129.7839415</v>
+        <v>228.2208276</v>
       </c>
       <c r="L3">
-        <v>128.340069</v>
+        <v>226.2742948</v>
       </c>
       <c r="M3">
-        <v>2.466766056</v>
+        <v>2.438309018</v>
       </c>
       <c r="N3">
-        <v>-0.00959536738988624</v>
+        <v>-0.009881614328174557</v>
       </c>
       <c r="O3">
-        <v>0.001437442736609437</v>
+        <v>-0.001412372095922197</v>
       </c>
       <c r="P3">
-        <v>-0.9931439802494185</v>
+        <v>-0.9930638696017815</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -4603,31 +4603,31 @@
         <v>1000000</v>
       </c>
       <c r="H4">
-        <v>118.9566541</v>
+        <v>194.7658982</v>
       </c>
       <c r="I4">
-        <v>118.9430541</v>
+        <v>194.7555272</v>
       </c>
       <c r="J4">
-        <v>0.0169121348</v>
+        <v>0.0169123673</v>
       </c>
       <c r="K4">
-        <v>120.5249142</v>
+        <v>197.399365</v>
       </c>
       <c r="L4">
-        <v>118.974851</v>
+        <v>195.3747739</v>
       </c>
       <c r="M4">
-        <v>2.47272926</v>
+        <v>2.452980633</v>
       </c>
       <c r="N4">
-        <v>-0.01301191633621593</v>
+        <v>-0.01334080684606042</v>
       </c>
       <c r="O4">
-        <v>-0.0002672573214653855</v>
+        <v>-0.003169532522745093</v>
       </c>
       <c r="P4">
-        <v>-0.9931605392173019</v>
+        <v>-0.993105380828337</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -4653,31 +4653,31 @@
         <v>1000000</v>
       </c>
       <c r="H5">
-        <v>110.5007503</v>
+        <v>170.9337644</v>
       </c>
       <c r="I5">
-        <v>110.4875762</v>
+        <v>170.9238256</v>
       </c>
       <c r="J5">
-        <v>0.01691207285</v>
+        <v>0.01691230534</v>
       </c>
       <c r="K5">
-        <v>112.2866855</v>
+        <v>173.6966152</v>
       </c>
       <c r="L5">
-        <v>110.6477963</v>
+        <v>171.6153685</v>
       </c>
       <c r="M5">
-        <v>2.477203172</v>
+        <v>2.462905543</v>
       </c>
       <c r="N5">
-        <v>-0.01590513774671884</v>
+        <v>-0.01590618675452459</v>
       </c>
       <c r="O5">
-        <v>-0.001448018897417385</v>
+        <v>-0.004029609387809587</v>
       </c>
       <c r="P5">
-        <v>-0.9931729165208739</v>
+        <v>-0.9931331896230987</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -4703,31 +4703,31 @@
         <v>1000000</v>
       </c>
       <c r="H6">
-        <v>103.0256224</v>
+        <v>152.1899619</v>
       </c>
       <c r="I6">
-        <v>103.0128353</v>
+        <v>152.1803679</v>
       </c>
       <c r="J6">
-        <v>0.01691201084</v>
+        <v>0.01691224334</v>
       </c>
       <c r="K6">
-        <v>104.9552503</v>
+        <v>154.966146</v>
       </c>
       <c r="L6">
-        <v>103.2413738</v>
+        <v>152.8420401</v>
       </c>
       <c r="M6">
-        <v>2.480460808</v>
+        <v>2.469711194</v>
       </c>
       <c r="N6">
-        <v>-0.01838524413485201</v>
+        <v>-0.01791477797995972</v>
       </c>
       <c r="O6">
-        <v>-0.002213632883680196</v>
+        <v>-0.004329124366352907</v>
       </c>
       <c r="P6">
-        <v>-0.9931819076578613</v>
+        <v>-0.9931521372292083</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4753,31 +4753,31 @@
         <v>1000000</v>
       </c>
       <c r="H7">
-        <v>96.39737673</v>
+        <v>137.0889424</v>
       </c>
       <c r="I7">
-        <v>96.38494055</v>
+        <v>137.0796292</v>
       </c>
       <c r="J7">
-        <v>0.01691194875</v>
+        <v>0.01691218136</v>
       </c>
       <c r="K7">
-        <v>98.41857431</v>
+        <v>139.8229776</v>
       </c>
       <c r="L7">
-        <v>96.64079786000001</v>
+        <v>137.6653361</v>
       </c>
       <c r="M7">
-        <v>2.482731985</v>
+        <v>2.47438493</v>
       </c>
       <c r="N7">
-        <v>-0.02053674922818532</v>
+        <v>-0.01955354725616996</v>
       </c>
       <c r="O7">
-        <v>-0.002647508253922546</v>
+        <v>-0.004254570660943536</v>
       </c>
       <c r="P7">
-        <v>-0.9931881697854713</v>
+        <v>-0.9931650968469162</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -4803,31 +4803,31 @@
         <v>1000000</v>
       </c>
       <c r="H8">
-        <v>90.4980225</v>
+        <v>124.6769925</v>
       </c>
       <c r="I8">
-        <v>90.48590451</v>
+        <v>124.6679123</v>
       </c>
       <c r="J8">
-        <v>0.01691188689</v>
+        <v>0.01691211937</v>
       </c>
       <c r="K8">
-        <v>92.57389338</v>
+        <v>127.3425585</v>
       </c>
       <c r="L8">
-        <v>90.7411614</v>
+        <v>125.1579319</v>
       </c>
       <c r="M8">
-        <v>2.48420451</v>
+        <v>2.477551399</v>
       </c>
       <c r="N8">
-        <v>-0.02242393405102777</v>
+        <v>-0.02093224787846554</v>
       </c>
       <c r="O8">
-        <v>-0.002813022073574631</v>
+        <v>-0.003915210107430647</v>
       </c>
       <c r="P8">
-        <v>-0.9931922324341969</v>
+        <v>-0.9931738573105582</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -4853,31 +4853,31 @@
         <v>1000000</v>
       </c>
       <c r="H9">
-        <v>85.22597655</v>
+        <v>114.3025157</v>
       </c>
       <c r="I9">
-        <v>85.21414744</v>
+        <v>114.2936315</v>
       </c>
       <c r="J9">
-        <v>0.01691182486</v>
+        <v>0.01691205733</v>
       </c>
       <c r="K9">
-        <v>87.33025349</v>
+        <v>116.8878995</v>
       </c>
       <c r="L9">
-        <v>85.44983701</v>
+        <v>114.68104</v>
       </c>
       <c r="M9">
-        <v>2.485029682</v>
+        <v>2.479621226</v>
       </c>
       <c r="N9">
-        <v>-0.02409562386350982</v>
+        <v>-0.02211848969020102</v>
       </c>
       <c r="O9">
-        <v>-0.0027582214109128</v>
+        <v>-0.003378139054197558</v>
       </c>
       <c r="P9">
-        <v>-0.9931945179639105</v>
+        <v>-0.9931795803517613</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -4903,31 +4903,31 @@
         <v>1000000</v>
       </c>
       <c r="H10">
-        <v>80.49482243999999</v>
+        <v>105.506567</v>
       </c>
       <c r="I10">
-        <v>80.48325610000001</v>
+        <v>105.4978501</v>
       </c>
       <c r="J10">
-        <v>0.0169117628</v>
+        <v>0.01691199533</v>
       </c>
       <c r="K10">
-        <v>82.60870607</v>
+        <v>108.0075627</v>
       </c>
       <c r="L10">
-        <v>80.68656278</v>
+        <v>105.7820115</v>
       </c>
       <c r="M10">
-        <v>2.485328691</v>
+        <v>2.480873688</v>
       </c>
       <c r="N10">
-        <v>-0.02558911439925915</v>
+        <v>-0.02315574611147105</v>
       </c>
       <c r="O10">
-        <v>-0.002519709267506328</v>
+        <v>-0.002686292271914324</v>
       </c>
       <c r="P10">
-        <v>-0.9931953616995444</v>
+        <v>-0.9931830486123483</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -4953,31 +4953,31 @@
         <v>1000000</v>
       </c>
       <c r="H11">
-        <v>76.23145478000001</v>
+        <v>97.95723112</v>
       </c>
       <c r="I11">
-        <v>76.22012803</v>
+        <v>97.94865848000001</v>
       </c>
       <c r="J11">
-        <v>0.01691170079</v>
+        <v>0.01691193332</v>
       </c>
       <c r="K11">
-        <v>78.34142401</v>
+        <v>100.3735275</v>
       </c>
       <c r="L11">
-        <v>76.38247407999999</v>
+        <v>98.13198418</v>
       </c>
       <c r="M11">
-        <v>2.485198578</v>
+        <v>2.481504504</v>
       </c>
       <c r="N11">
-        <v>-0.02693299562349875</v>
+        <v>-0.02407304435923099</v>
       </c>
       <c r="O11">
-        <v>-0.002125435866740342</v>
+        <v>-0.001868154420109652</v>
       </c>
       <c r="P11">
-        <v>-0.9931950303932613</v>
+        <v>-0.9931848065184895</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5003,31 +5003,31 @@
         <v>1000000</v>
       </c>
       <c r="H12">
-        <v>72.41086826999999</v>
+        <v>91.47005005</v>
       </c>
       <c r="I12">
-        <v>72.39975843000001</v>
+        <v>91.46160191</v>
       </c>
       <c r="J12">
-        <v>0.01691163946</v>
+        <v>0.01691187197</v>
       </c>
       <c r="K12">
-        <v>74.5073472</v>
+        <v>93.80414768999999</v>
       </c>
       <c r="L12">
-        <v>72.51599451</v>
+        <v>91.54884068</v>
       </c>
       <c r="M12">
-        <v>2.484723541</v>
+        <v>2.481654999</v>
       </c>
       <c r="N12">
-        <v>-0.02813788181684186</v>
+        <v>-0.02488266987632171</v>
       </c>
       <c r="O12">
-        <v>-0.001602902653206584</v>
+        <v>-0.0009529205323848239</v>
       </c>
       <c r="P12">
-        <v>-0.9931937540813117</v>
+        <v>-0.9931852445336621</v>
       </c>
     </row>
   </sheetData>
@@ -5116,31 +5116,31 @@
         <v>1000000</v>
       </c>
       <c r="H2">
-        <v>0.01127961428</v>
+        <v>0.01127971764</v>
       </c>
       <c r="I2">
-        <v>0.01127961401</v>
+        <v>0.01127971738</v>
       </c>
       <c r="J2">
-        <v>0.01127931772</v>
+        <v>0.01127942108</v>
       </c>
       <c r="K2">
-        <v>2.513051873</v>
+        <v>2.492918977</v>
       </c>
       <c r="L2">
-        <v>2.838649835</v>
+        <v>2.813777617</v>
       </c>
       <c r="M2">
-        <v>2.512932193</v>
+        <v>2.493685807</v>
       </c>
       <c r="N2">
-        <v>-0.995511587165714</v>
+        <v>-0.9954752971339751</v>
       </c>
       <c r="O2">
-        <v>-0.996026415843573</v>
+        <v>-0.9959912548483394</v>
       </c>
       <c r="P2">
-        <v>-0.9955114914157176</v>
+        <v>-0.9954768074436894</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -5166,31 +5166,31 @@
         <v>1000000</v>
       </c>
       <c r="H3">
-        <v>0.01127955195</v>
+        <v>0.01127965531</v>
       </c>
       <c r="I3">
-        <v>0.01127955178</v>
+        <v>0.01127965515</v>
       </c>
       <c r="J3">
-        <v>0.01127929041</v>
+        <v>0.01127939377</v>
       </c>
       <c r="K3">
-        <v>2.512982668</v>
+        <v>2.492850268</v>
       </c>
       <c r="L3">
-        <v>2.838611273</v>
+        <v>2.813738487</v>
       </c>
       <c r="M3">
-        <v>2.512932649</v>
+        <v>2.49368507</v>
       </c>
       <c r="N3">
-        <v>-0.9955114883625612</v>
+        <v>-0.9954751974256963</v>
       </c>
       <c r="O3">
-        <v>-0.9960263837858718</v>
+        <v>-0.9959912212161457</v>
       </c>
       <c r="P3">
-        <v>-0.9955115030979885</v>
+        <v>-0.995476817058539</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -5216,31 +5216,31 @@
         <v>1000000</v>
       </c>
       <c r="H4">
-        <v>0.01127948899</v>
+        <v>0.01127959235</v>
       </c>
       <c r="I4">
-        <v>0.01127948891</v>
+        <v>0.01127959228</v>
       </c>
       <c r="J4">
-        <v>0.01127926283</v>
+        <v>0.01127936619</v>
       </c>
       <c r="K4">
-        <v>2.512925117</v>
+        <v>2.492793158</v>
       </c>
       <c r="L4">
-        <v>2.838577789</v>
+        <v>2.813704618</v>
       </c>
       <c r="M4">
-        <v>2.512930177</v>
+        <v>2.493681706</v>
       </c>
       <c r="N4">
-        <v>-0.9955114106211546</v>
+        <v>-0.9954751190190806</v>
       </c>
       <c r="O4">
-        <v>-0.9960263590613193</v>
+        <v>-0.9959911953060596</v>
       </c>
       <c r="P4">
-        <v>-0.9955115096578347</v>
+        <v>-0.9954768220166748</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -5266,31 +5266,31 @@
         <v>1000000</v>
       </c>
       <c r="H5">
-        <v>0.01127942603</v>
+        <v>0.01127952939</v>
       </c>
       <c r="I5">
-        <v>0.01127942605</v>
+        <v>0.01127952942</v>
       </c>
       <c r="J5">
-        <v>0.01127923524</v>
+        <v>0.0112793386</v>
       </c>
       <c r="K5">
-        <v>2.512879623</v>
+        <v>2.492748053</v>
       </c>
       <c r="L5">
-        <v>2.838549278</v>
+        <v>2.813675912</v>
       </c>
       <c r="M5">
-        <v>2.512924363</v>
+        <v>2.493675321</v>
       </c>
       <c r="N5">
-        <v>-0.9955113544131755</v>
+        <v>-0.9954750624009414</v>
       </c>
       <c r="O5">
-        <v>-0.9960263412943292</v>
+        <v>-0.9959911767478642</v>
       </c>
       <c r="P5">
-        <v>-0.9955115102523283</v>
+        <v>-0.9954768214991689</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -5316,31 +5316,31 @@
         <v>1000000</v>
       </c>
       <c r="H6">
-        <v>0.01127936307</v>
+        <v>0.01127946643</v>
       </c>
       <c r="I6">
-        <v>0.0112793632</v>
+        <v>0.01127946656</v>
       </c>
       <c r="J6">
-        <v>0.01127920765</v>
+        <v>0.01127931102</v>
       </c>
       <c r="K6">
-        <v>2.512845882</v>
+        <v>2.492714649</v>
       </c>
       <c r="L6">
-        <v>2.838525272</v>
+        <v>2.813651917</v>
       </c>
       <c r="M6">
-        <v>2.512914863</v>
+        <v>2.493665577</v>
       </c>
       <c r="N6">
-        <v>-0.9955113191975695</v>
+        <v>-0.9954750270214342</v>
       </c>
       <c r="O6">
-        <v>-0.9960263298300485</v>
+        <v>-0.9959911649014401</v>
       </c>
       <c r="P6">
-        <v>-0.9955115042630078</v>
+        <v>-0.9954768148848694</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -5366,31 +5366,31 @@
         <v>1000000</v>
       </c>
       <c r="H7">
-        <v>0.01127930011</v>
+        <v>0.01127940347</v>
       </c>
       <c r="I7">
-        <v>0.01127930034</v>
+        <v>0.0112794037</v>
       </c>
       <c r="J7">
-        <v>0.01127918007</v>
+        <v>0.01127928343</v>
       </c>
       <c r="K7">
-        <v>2.512823626</v>
+        <v>2.492692686</v>
       </c>
       <c r="L7">
-        <v>2.838505382</v>
+        <v>2.813632249</v>
       </c>
       <c r="M7">
-        <v>2.51290139</v>
+        <v>2.493652191</v>
       </c>
       <c r="N7">
-        <v>-0.9955113044969436</v>
+        <v>-0.9954750124099333</v>
       </c>
       <c r="O7">
-        <v>-0.9960263241311691</v>
+        <v>-0.9959911592198984</v>
       </c>
       <c r="P7">
-        <v>-0.9955114911731575</v>
+        <v>-0.9954768016683687</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -5416,31 +5416,31 @@
         <v>1000000</v>
       </c>
       <c r="H8">
-        <v>0.01127923715</v>
+        <v>0.01127934052</v>
       </c>
       <c r="I8">
-        <v>0.01127923748</v>
+        <v>0.01127934085</v>
       </c>
       <c r="J8">
-        <v>0.01127915248</v>
+        <v>0.01127925585</v>
       </c>
       <c r="K8">
-        <v>2.512812639</v>
+        <v>2.492681955</v>
       </c>
       <c r="L8">
-        <v>2.838489288</v>
+        <v>2.81361659</v>
       </c>
       <c r="M8">
-        <v>2.512883705</v>
+        <v>2.493634927</v>
       </c>
       <c r="N8">
-        <v>-0.9955113099261993</v>
+        <v>-0.9954750181837779</v>
       </c>
       <c r="O8">
-        <v>-0.9960263237463378</v>
+        <v>-0.9959911592467544</v>
       </c>
       <c r="P8">
-        <v>-0.9955114705636566</v>
+        <v>-0.9954767814134006</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -5466,31 +5466,31 @@
         <v>1000000</v>
       </c>
       <c r="H9">
-        <v>0.01127917419</v>
+        <v>0.01127927756</v>
       </c>
       <c r="I9">
-        <v>0.01127917462</v>
+        <v>0.01127927799</v>
       </c>
       <c r="J9">
-        <v>0.0112791249</v>
+        <v>0.01127922826</v>
       </c>
       <c r="K9">
-        <v>2.512812756</v>
+        <v>2.492682288</v>
       </c>
       <c r="L9">
-        <v>2.838476739</v>
+        <v>2.813604699</v>
       </c>
       <c r="M9">
-        <v>2.512861622</v>
+        <v>2.493613605</v>
       </c>
       <c r="N9">
-        <v>-0.9955113351907866</v>
+        <v>-0.995475044046207</v>
       </c>
       <c r="O9">
-        <v>-0.996026328324264</v>
+        <v>-0.9959911646458336</v>
       </c>
       <c r="P9">
-        <v>-0.9955114420940445</v>
+        <v>-0.995476753801237</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -5516,31 +5516,31 @@
         <v>1000000</v>
       </c>
       <c r="H10">
-        <v>0.01127911124</v>
+        <v>0.0112792146</v>
       </c>
       <c r="I10">
-        <v>0.01127911177</v>
+        <v>0.01127921513</v>
       </c>
       <c r="J10">
-        <v>0.01127909731</v>
+        <v>0.01127920068</v>
       </c>
       <c r="K10">
-        <v>2.512823854</v>
+        <v>2.492693569</v>
       </c>
       <c r="L10">
-        <v>2.838467557</v>
+        <v>2.813596399</v>
       </c>
       <c r="M10">
-        <v>2.512835009</v>
+        <v>2.493588093</v>
       </c>
       <c r="N10">
-        <v>-0.9955113800666746</v>
+        <v>-0.9954750897822853</v>
       </c>
       <c r="O10">
-        <v>-0.9960263376122851</v>
+        <v>-0.9959911751614379</v>
       </c>
       <c r="P10">
-        <v>-0.9955114055361364</v>
+        <v>-0.9954767185840905</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -5566,31 +5566,31 @@
         <v>1000000</v>
       </c>
       <c r="H11">
-        <v>0.01127904828</v>
+        <v>0.01127915165</v>
       </c>
       <c r="I11">
-        <v>0.01127904891</v>
+        <v>0.01127915228</v>
       </c>
       <c r="J11">
-        <v>0.01127906973</v>
+        <v>0.01127917309</v>
       </c>
       <c r="K11">
-        <v>2.512845864</v>
+        <v>2.492715725</v>
       </c>
       <c r="L11">
-        <v>2.838461634</v>
+        <v>2.813591586</v>
       </c>
       <c r="M11">
-        <v>2.512803789</v>
+        <v>2.493558314</v>
       </c>
       <c r="N11">
-        <v>-0.9955114444377238</v>
+        <v>-0.9954751552546168</v>
       </c>
       <c r="O11">
-        <v>-0.9960263514662675</v>
+        <v>-0.9959911906418388</v>
       </c>
       <c r="P11">
-        <v>-0.9955113607439725</v>
+        <v>-0.9954766756298926</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -5616,31 +5616,31 @@
         <v>1000000</v>
       </c>
       <c r="H12">
-        <v>0.01127898595</v>
+        <v>0.01127908932</v>
       </c>
       <c r="I12">
-        <v>0.01127898669</v>
+        <v>0.01127909005</v>
       </c>
       <c r="J12">
-        <v>0.01127904242</v>
+        <v>0.01127914578</v>
       </c>
       <c r="K12">
-        <v>2.512878373</v>
+        <v>2.492748351</v>
       </c>
       <c r="L12">
-        <v>2.838458947</v>
+        <v>2.81359022</v>
       </c>
       <c r="M12">
-        <v>2.512768313</v>
+        <v>2.493524604</v>
       </c>
       <c r="N12">
-        <v>-0.9955115273101998</v>
+        <v>-0.9954752394819657</v>
       </c>
       <c r="O12">
-        <v>-0.9960263696249965</v>
+        <v>-0.995991210813208</v>
       </c>
       <c r="P12">
-        <v>-0.9955113082405381</v>
+        <v>-0.9954766254313646</v>
       </c>
     </row>
   </sheetData>
@@ -5732,31 +5732,31 @@
         <v>13.33</v>
       </c>
       <c r="I2">
-        <v>94.98690000000001</v>
+        <v>125.3314</v>
       </c>
       <c r="J2">
-        <v>87.09699999999999</v>
+        <v>115.2166</v>
       </c>
       <c r="K2">
-        <v>83.48350000000001</v>
+        <v>105.3058</v>
       </c>
       <c r="L2">
-        <v>86.3428</v>
+        <v>110.287</v>
       </c>
       <c r="M2">
-        <v>88.70440000000001</v>
+        <v>113.8529</v>
       </c>
       <c r="N2">
-        <v>88.2051</v>
+        <v>113.8417</v>
       </c>
       <c r="O2">
-        <v>0.100113732702669</v>
+        <v>0.136411363079964</v>
       </c>
       <c r="P2">
-        <v>-0.01812085984460762</v>
+        <v>0.01197773618414633</v>
       </c>
       <c r="Q2">
-        <v>-0.05352978455894268</v>
+        <v>-0.07498043335614277</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -5785,31 +5785,31 @@
         <v>20</v>
       </c>
       <c r="I3">
-        <v>72.75439590000001</v>
+        <v>93.16966588</v>
       </c>
       <c r="J3">
-        <v>3.795897783</v>
+        <v>3.756763584</v>
       </c>
       <c r="K3">
-        <v>75.69768516000001</v>
+        <v>96.51139838</v>
       </c>
       <c r="L3">
-        <v>71.34353244</v>
+        <v>90.155573</v>
       </c>
       <c r="M3">
-        <v>2.838429746</v>
+        <v>2.813575607</v>
       </c>
       <c r="N3">
-        <v>73.53011658</v>
+        <v>92.62639879</v>
       </c>
       <c r="O3">
-        <v>0.01977563223669278</v>
+        <v>0.03343213047960987</v>
       </c>
       <c r="P3">
-        <v>0.3373231408490178</v>
+        <v>0.3352275213978282</v>
       </c>
       <c r="Q3">
-        <v>0.02947865012075312</v>
+        <v>0.04194268200805226</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -5838,31 +5838,31 @@
         <v>20</v>
       </c>
       <c r="I4">
-        <v>4.033656328</v>
+        <v>3.983977776</v>
       </c>
       <c r="J4">
-        <v>76.01412041</v>
+        <v>96.9085499</v>
       </c>
       <c r="K4">
-        <v>73.07232854</v>
+        <v>93.57016692000001</v>
       </c>
       <c r="L4">
-        <v>2.528513549</v>
+        <v>2.49455429</v>
       </c>
       <c r="M4">
-        <v>74.57168149</v>
+        <v>93.86768556</v>
       </c>
       <c r="N4">
-        <v>72.64525017</v>
+        <v>91.69489381</v>
       </c>
       <c r="O4">
-        <v>0.5952678321993837</v>
+        <v>0.5970699823895195</v>
       </c>
       <c r="P4">
-        <v>0.0193429850471245</v>
+        <v>0.03239522016398589</v>
       </c>
       <c r="Q4">
-        <v>0.00587895793600519</v>
+        <v>0.0204512272393896</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -5891,31 +5891,31 @@
         <v>1000000</v>
       </c>
       <c r="I5">
-        <v>73.99089142</v>
+        <v>93.02195343</v>
       </c>
       <c r="J5">
-        <v>70.95518847</v>
+        <v>89.61059919</v>
       </c>
       <c r="K5">
-        <v>3.911809862</v>
+        <v>3.864798558</v>
       </c>
       <c r="L5">
-        <v>74.47043001</v>
+        <v>93.74215166</v>
       </c>
       <c r="M5">
-        <v>72.47876818</v>
+        <v>91.48671455</v>
       </c>
       <c r="N5">
-        <v>2.484717206</v>
+        <v>2.481654483</v>
       </c>
       <c r="O5">
-        <v>-0.006439315442862503</v>
+        <v>-0.007682757620202124</v>
       </c>
       <c r="P5">
-        <v>-0.02102104862235266</v>
+        <v>-0.0205069705391448</v>
       </c>
       <c r="Q5">
-        <v>0.5743481200009045</v>
+        <v>0.5573475616669882</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -5944,31 +5944,31 @@
         <v>1000000</v>
       </c>
       <c r="I6">
-        <v>3.897753146</v>
+        <v>3.850975914</v>
       </c>
       <c r="J6">
-        <v>3.926650523</v>
+        <v>3.879182942</v>
       </c>
       <c r="K6">
-        <v>3.911929931</v>
+        <v>3.864895945</v>
       </c>
       <c r="L6">
-        <v>2.512878756</v>
+        <v>2.492748735</v>
       </c>
       <c r="M6">
-        <v>2.838458937</v>
+        <v>2.813590223</v>
       </c>
       <c r="N6">
-        <v>2.512767932</v>
+        <v>2.493524242</v>
       </c>
       <c r="O6">
-        <v>0.5511107078657637</v>
+        <v>0.544871273999463</v>
       </c>
       <c r="P6">
-        <v>0.3833740808489984</v>
+        <v>0.3787306020219989</v>
       </c>
       <c r="Q6">
-        <v>0.5568210184401541</v>
+        <v>0.5499732787438448</v>
       </c>
     </row>
   </sheetData>
@@ -6057,31 +6057,31 @@
         <v>65.89694</v>
       </c>
       <c r="H2">
-        <v>197.0169</v>
+        <v>442.8133</v>
       </c>
       <c r="I2">
-        <v>129.6453</v>
+        <v>315.376</v>
       </c>
       <c r="J2">
-        <v>115.1187</v>
+        <v>155.4762</v>
       </c>
       <c r="K2">
-        <v>179.5238</v>
+        <v>359.0248</v>
       </c>
       <c r="L2">
-        <v>136.4096</v>
+        <v>275.2091</v>
       </c>
       <c r="M2">
-        <v>128.6708</v>
+        <v>187.7188</v>
       </c>
       <c r="N2">
-        <v>0.09744167625685285</v>
+        <v>0.2333780284815979</v>
       </c>
       <c r="O2">
-        <v>-0.04958815215351427</v>
+        <v>0.1459504791084306</v>
       </c>
       <c r="P2">
-        <v>-0.1053238186130809</v>
+        <v>-0.1717601007464356</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6107,31 +6107,31 @@
         <v>65.89694</v>
       </c>
       <c r="H3">
-        <v>181.6935</v>
+        <v>372.398</v>
       </c>
       <c r="I3">
-        <v>125.1666</v>
+        <v>271.1367</v>
       </c>
       <c r="J3">
-        <v>110.9888</v>
+        <v>148.759</v>
       </c>
       <c r="K3">
-        <v>164.4299</v>
+        <v>297.6562</v>
       </c>
       <c r="L3">
-        <v>128.9443</v>
+        <v>237.0716</v>
       </c>
       <c r="M3">
-        <v>119.7288</v>
+        <v>168.4555</v>
       </c>
       <c r="N3">
-        <v>0.104990637347587</v>
+        <v>0.2511011025471669</v>
       </c>
       <c r="O3">
-        <v>-0.02929714613208956</v>
+        <v>0.1436911886535546</v>
       </c>
       <c r="P3">
-        <v>-0.07299830951283241</v>
+        <v>-0.1169240541270544</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6157,31 +6157,31 @@
         <v>65.89694</v>
       </c>
       <c r="H4">
-        <v>167.4036</v>
+        <v>313.9978</v>
       </c>
       <c r="I4">
-        <v>120.3419</v>
+        <v>234.5662</v>
       </c>
       <c r="J4">
-        <v>107.0988</v>
+        <v>142.4603</v>
       </c>
       <c r="K4">
-        <v>151.0567</v>
+        <v>252.3673</v>
       </c>
       <c r="L4">
-        <v>121.6696</v>
+        <v>207.1903</v>
       </c>
       <c r="M4">
-        <v>111.8398</v>
+        <v>152.6401</v>
       </c>
       <c r="N4">
-        <v>0.1082169807760927</v>
+        <v>0.2442095311080318</v>
       </c>
       <c r="O4">
-        <v>-0.0109123396477017</v>
+        <v>0.1321292550857835</v>
       </c>
       <c r="P4">
-        <v>-0.04239099140019921</v>
+        <v>-0.06669151815283141</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6207,31 +6207,31 @@
         <v>65.89694</v>
       </c>
       <c r="H5">
-        <v>154.4452</v>
+        <v>268.3404</v>
       </c>
       <c r="I5">
-        <v>115.4699</v>
+        <v>206.036</v>
       </c>
       <c r="J5">
-        <v>103.4645</v>
+        <v>136.609</v>
       </c>
       <c r="K5">
-        <v>139.3503</v>
+        <v>218.3595</v>
       </c>
       <c r="L5">
-        <v>114.8125</v>
+        <v>183.6805</v>
       </c>
       <c r="M5">
-        <v>104.8979</v>
+        <v>139.5292</v>
       </c>
       <c r="N5">
-        <v>0.1083234122926179</v>
+        <v>0.2288927204907503</v>
       </c>
       <c r="O5">
-        <v>0.005725857376156739</v>
+        <v>0.1217086190423045</v>
       </c>
       <c r="P5">
-        <v>-0.01366471588087088</v>
+        <v>-0.0209289525059987</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6257,31 +6257,31 @@
         <v>65.89694</v>
       </c>
       <c r="H6">
-        <v>142.8121</v>
+        <v>232.7733</v>
       </c>
       <c r="I6">
-        <v>110.7082</v>
+        <v>183.8046</v>
       </c>
       <c r="J6">
-        <v>100.062</v>
+        <v>131.1665</v>
       </c>
       <c r="K6">
-        <v>129.0894</v>
+        <v>192.0872</v>
       </c>
       <c r="L6">
-        <v>108.4361</v>
+        <v>164.8201</v>
       </c>
       <c r="M6">
-        <v>98.74467</v>
+        <v>128.4809</v>
       </c>
       <c r="N6">
-        <v>0.1063038483407621</v>
+        <v>0.211810573531188</v>
       </c>
       <c r="O6">
-        <v>0.02095335409517687</v>
+        <v>0.1151831603062976</v>
       </c>
       <c r="P6">
-        <v>0.01334077069678797</v>
+        <v>0.02090271783588084</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6307,31 +6307,31 @@
         <v>65.89694</v>
       </c>
       <c r="H7">
-        <v>132.4221</v>
+        <v>204.7363</v>
       </c>
       <c r="I7">
-        <v>106.1454</v>
+        <v>166.2234</v>
       </c>
       <c r="J7">
-        <v>96.87003</v>
+        <v>126.097</v>
       </c>
       <c r="K7">
-        <v>120.0686</v>
+        <v>171.2738</v>
       </c>
       <c r="L7">
-        <v>102.5522</v>
+        <v>149.4031</v>
       </c>
       <c r="M7">
-        <v>93.25503</v>
+        <v>119.0439</v>
       </c>
       <c r="N7">
-        <v>0.1028870162557071</v>
+        <v>0.1953743071035967</v>
       </c>
       <c r="O7">
-        <v>0.03503776613275967</v>
+        <v>0.1125833399708574</v>
       </c>
       <c r="P7">
-        <v>0.03876466502664783</v>
+        <v>0.05924789090411185</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6357,31 +6357,31 @@
         <v>65.89694</v>
       </c>
       <c r="H8">
-        <v>123.1596</v>
+        <v>182.2726</v>
       </c>
       <c r="I8">
-        <v>101.8256</v>
+        <v>152.0494</v>
       </c>
       <c r="J8">
-        <v>93.86998</v>
+        <v>121.368</v>
       </c>
       <c r="K8">
-        <v>112.107</v>
+        <v>154.4242</v>
       </c>
       <c r="L8">
-        <v>97.14472000000001</v>
+        <v>136.5867</v>
       </c>
       <c r="M8">
-        <v>88.32872</v>
+        <v>110.8903</v>
       </c>
       <c r="N8">
-        <v>0.09858974015895527</v>
+        <v>0.1803370197158217</v>
       </c>
       <c r="O8">
-        <v>0.04818460540109629</v>
+        <v>0.1132079477723672</v>
       </c>
       <c r="P8">
-        <v>0.06273452168218892</v>
+        <v>0.0944870741624831</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -6407,31 +6407,31 @@
         <v>65.89694</v>
       </c>
       <c r="H9">
-        <v>114.9002</v>
+        <v>163.9724</v>
       </c>
       <c r="I9">
-        <v>97.7651</v>
+        <v>140.3991</v>
       </c>
       <c r="J9">
-        <v>91.04527</v>
+        <v>116.9499</v>
       </c>
       <c r="K9">
-        <v>105.0491</v>
+        <v>140.5286</v>
       </c>
       <c r="L9">
-        <v>92.18367000000001</v>
+        <v>125.7737</v>
       </c>
       <c r="M9">
-        <v>83.88455999999999</v>
+        <v>103.7753</v>
       </c>
       <c r="N9">
-        <v>0.09377614848675526</v>
+        <v>0.1668258276251239</v>
       </c>
       <c r="O9">
-        <v>0.06054684088841328</v>
+        <v>0.116283451945836</v>
       </c>
       <c r="P9">
-        <v>0.08536386195504882</v>
+        <v>0.1269531381744982</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -6457,31 +6457,31 @@
         <v>65.89694</v>
       </c>
       <c r="H10">
-        <v>107.5231</v>
+        <v>148.8308</v>
       </c>
       <c r="I10">
-        <v>93.96384</v>
+        <v>130.6505</v>
       </c>
       <c r="J10">
-        <v>88.38115000000001</v>
+        <v>112.816</v>
       </c>
       <c r="K10">
-        <v>98.76356</v>
+        <v>128.8858</v>
       </c>
       <c r="L10">
-        <v>87.6332</v>
+        <v>116.5328</v>
       </c>
       <c r="M10">
-        <v>79.85607</v>
+        <v>97.51254</v>
       </c>
       <c r="N10">
-        <v>0.08869202365730844</v>
+        <v>0.1547493983045458</v>
       </c>
       <c r="O10">
-        <v>0.0722402012022841</v>
+        <v>0.1211478656652891</v>
       </c>
       <c r="P10">
-        <v>0.106755566608775</v>
+        <v>0.1569383794125351</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -6507,31 +6507,31 @@
         <v>65.89694</v>
       </c>
       <c r="H11">
-        <v>100.9181</v>
+        <v>136.1258</v>
       </c>
       <c r="I11">
-        <v>90.41251</v>
+        <v>122.3623</v>
       </c>
       <c r="J11">
-        <v>85.86448</v>
+        <v>108.9419</v>
       </c>
       <c r="K11">
-        <v>93.14001</v>
+        <v>118.9964</v>
       </c>
       <c r="L11">
-        <v>83.45623000000001</v>
+        <v>108.5462</v>
       </c>
       <c r="M11">
-        <v>76.18832</v>
+        <v>91.95777</v>
       </c>
       <c r="N11">
-        <v>0.08350965390705875</v>
+        <v>0.14394889257154</v>
       </c>
       <c r="O11">
-        <v>0.08335243516271933</v>
+        <v>0.1272831292113405</v>
       </c>
       <c r="P11">
-        <v>0.1270031941903955</v>
+        <v>0.1846948876641964</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -6554,34 +6554,34 @@
         <v>13.33</v>
       </c>
       <c r="G12">
-        <v>65.8969</v>
+        <v>65.89694</v>
       </c>
       <c r="H12">
-        <v>95.0432</v>
+        <v>125.4312</v>
       </c>
       <c r="I12">
-        <v>87.129</v>
+        <v>115.2832</v>
       </c>
       <c r="J12">
-        <v>83.50660000000001</v>
+        <v>105.3411</v>
       </c>
       <c r="K12">
-        <v>88.1339</v>
+        <v>110.5753</v>
       </c>
       <c r="L12">
-        <v>79.6537</v>
+        <v>101.641</v>
       </c>
       <c r="M12">
-        <v>72.8677</v>
+        <v>87.04433</v>
       </c>
       <c r="N12">
-        <v>0.07839548686714196</v>
+        <v>0.1343509807343955</v>
       </c>
       <c r="O12">
-        <v>0.09384749233243407</v>
+        <v>0.1342194586830117</v>
       </c>
       <c r="P12">
-        <v>0.1460029615316527</v>
+        <v>0.2102005954896774</v>
       </c>
     </row>
   </sheetData>
@@ -6670,31 +6670,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H2">
-        <v>111.1249595</v>
+        <v>164.9212486</v>
       </c>
       <c r="I2">
-        <v>3.467157413</v>
+        <v>3.549254202</v>
       </c>
       <c r="J2">
-        <v>113.9613669</v>
+        <v>168.4193064</v>
       </c>
       <c r="K2">
-        <v>112.2898668</v>
+        <v>166.4813904</v>
       </c>
       <c r="L2">
-        <v>2.836531234</v>
+        <v>2.809826995</v>
       </c>
       <c r="M2">
-        <v>114.3660299</v>
+        <v>169.0466344</v>
       </c>
       <c r="N2">
-        <v>-0.01037410884167151</v>
+        <v>-0.00937126844178493</v>
       </c>
       <c r="O2">
-        <v>0.222323016027822</v>
+        <v>0.2631575567875845</v>
       </c>
       <c r="P2">
-        <v>-0.003538314658241007</v>
+        <v>-0.003710975981429993</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -6720,31 +6720,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H3">
-        <v>105.6483249</v>
+        <v>153.4240113</v>
       </c>
       <c r="I3">
-        <v>3.512870287</v>
+        <v>3.561279556</v>
       </c>
       <c r="J3">
-        <v>108.4992357</v>
+        <v>156.8981393</v>
       </c>
       <c r="K3">
-        <v>104.1017287</v>
+        <v>148.1898241</v>
       </c>
       <c r="L3">
-        <v>2.836580692</v>
+        <v>2.810203111</v>
       </c>
       <c r="M3">
-        <v>106.2300728</v>
+        <v>150.7596195</v>
       </c>
       <c r="N3">
-        <v>0.01485658518175991</v>
+        <v>0.03532082740355975</v>
       </c>
       <c r="O3">
-        <v>0.2384171890146956</v>
+        <v>0.2672676725963529</v>
       </c>
       <c r="P3">
-        <v>0.02136083352095752</v>
+        <v>0.04071726779596961</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -6770,31 +6770,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H4">
-        <v>100.6294006</v>
+        <v>143.280689</v>
       </c>
       <c r="I4">
-        <v>3.555137472</v>
+        <v>3.578956107</v>
       </c>
       <c r="J4">
-        <v>103.4937522</v>
+        <v>146.7332031</v>
       </c>
       <c r="K4">
-        <v>96.89130439</v>
+        <v>133.3590702</v>
       </c>
       <c r="L4">
-        <v>2.836631948</v>
+        <v>2.810504998</v>
       </c>
       <c r="M4">
-        <v>99.06421874</v>
+        <v>135.9327774</v>
       </c>
       <c r="N4">
-        <v>0.03858030639110477</v>
+        <v>0.07439778025686929</v>
       </c>
       <c r="O4">
-        <v>0.2532952942684689</v>
+        <v>0.2734210078070818</v>
       </c>
       <c r="P4">
-        <v>0.04471375756392506</v>
+        <v>0.07945416776277835</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -6820,31 +6820,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H5">
-        <v>96.05761405</v>
+        <v>134.3565859</v>
       </c>
       <c r="I5">
-        <v>3.593940269</v>
+        <v>3.599844967</v>
       </c>
       <c r="J5">
-        <v>98.93435748</v>
+        <v>137.7897463</v>
       </c>
       <c r="K5">
-        <v>90.56355021</v>
+        <v>121.2029348</v>
       </c>
       <c r="L5">
-        <v>2.836683733</v>
+        <v>2.810750946</v>
       </c>
       <c r="M5">
-        <v>92.77461783</v>
+        <v>123.7800927</v>
       </c>
       <c r="N5">
-        <v>0.06066528782562394</v>
+        <v>0.1085258465210036</v>
       </c>
       <c r="O5">
-        <v>0.2669513443429049</v>
+        <v>0.2807413521012829</v>
       </c>
       <c r="P5">
-        <v>0.06639466477013249</v>
+        <v>0.1131817992248118</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -6870,31 +6870,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H6">
-        <v>91.87589296</v>
+        <v>126.4484253</v>
       </c>
       <c r="I6">
-        <v>3.629677192</v>
+        <v>3.622419192</v>
       </c>
       <c r="J6">
-        <v>94.76411735000001</v>
+        <v>129.8642146</v>
       </c>
       <c r="K6">
-        <v>84.97215631</v>
+        <v>111.0568004</v>
       </c>
       <c r="L6">
-        <v>2.836735047</v>
+        <v>2.810956153</v>
       </c>
       <c r="M6">
-        <v>87.21627966</v>
+        <v>113.6370996</v>
       </c>
       <c r="N6">
-        <v>0.08124704550056862</v>
+        <v>0.1385923675503261</v>
       </c>
       <c r="O6">
-        <v>0.2795263328658695</v>
+        <v>0.288678654106349</v>
       </c>
       <c r="P6">
-        <v>0.08654161493042535</v>
+        <v>0.1427976871736349</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -6920,31 +6920,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H7">
-        <v>88.0364608</v>
+        <v>119.394913</v>
       </c>
       <c r="I7">
-        <v>3.662688397</v>
+        <v>3.645688157</v>
       </c>
       <c r="J7">
-        <v>90.93537066</v>
+        <v>122.7950717</v>
       </c>
       <c r="K7">
-        <v>79.99992508</v>
+        <v>102.4593831</v>
       </c>
       <c r="L7">
-        <v>2.836786108</v>
+        <v>2.811131097</v>
       </c>
       <c r="M7">
-        <v>82.27300706</v>
+        <v>105.0426182</v>
       </c>
       <c r="N7">
-        <v>0.1004567905777844</v>
+        <v>0.1652901802411887</v>
       </c>
       <c r="O7">
-        <v>0.2911401344891245</v>
+        <v>0.2968758948633266</v>
       </c>
       <c r="P7">
-        <v>0.1052880392919481</v>
+        <v>0.169002389736702</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -6970,31 +6970,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H8">
-        <v>84.49902470000001</v>
+        <v>113.0666275</v>
       </c>
       <c r="I8">
-        <v>3.693267941</v>
+        <v>3.669014046</v>
       </c>
       <c r="J8">
-        <v>87.40791891000001</v>
+        <v>116.452688</v>
       </c>
       <c r="K8">
-        <v>75.55229041</v>
+        <v>95.08051336</v>
       </c>
       <c r="L8">
-        <v>2.836836955</v>
+        <v>2.811283022</v>
       </c>
       <c r="M8">
-        <v>77.85100242</v>
+        <v>97.6665524</v>
       </c>
       <c r="N8">
-        <v>0.1184177771639843</v>
+        <v>0.1891671963517888</v>
       </c>
       <c r="O8">
-        <v>0.3018964429698782</v>
+        <v>0.3051030498486751</v>
       </c>
       <c r="P8">
-        <v>0.1227590678722568</v>
+        <v>0.1923497363054252</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7020,31 +7020,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H9">
-        <v>81.22936389</v>
+        <v>107.3586533</v>
       </c>
       <c r="I9">
-        <v>3.721671732</v>
+        <v>3.691989269</v>
       </c>
       <c r="J9">
-        <v>84.14762367</v>
+        <v>110.7319668</v>
       </c>
       <c r="K9">
-        <v>71.55236232</v>
+        <v>88.67764344</v>
       </c>
       <c r="L9">
-        <v>2.836887747</v>
+        <v>2.811417651</v>
       </c>
       <c r="M9">
-        <v>73.87397409</v>
+        <v>91.26640822</v>
       </c>
       <c r="N9">
-        <v>0.1352436349581589</v>
+        <v>0.2106620015521694</v>
       </c>
       <c r="O9">
-        <v>0.3118854406331926</v>
+        <v>0.3132126661034468</v>
       </c>
       <c r="P9">
-        <v>0.1390699458984527</v>
+        <v>0.2132828382275959</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7070,31 +7070,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H10">
-        <v>78.19823354</v>
+        <v>102.1851216</v>
       </c>
       <c r="I10">
-        <v>3.748119483</v>
+        <v>3.714361767</v>
       </c>
       <c r="J10">
-        <v>81.12530959</v>
+        <v>105.5468844</v>
       </c>
       <c r="K10">
-        <v>67.93714025</v>
+        <v>83.06859624000001</v>
       </c>
       <c r="L10">
-        <v>2.836938833</v>
+        <v>2.811539028</v>
       </c>
       <c r="M10">
-        <v>70.27939317000001</v>
+        <v>85.66004814999999</v>
       </c>
       <c r="N10">
-        <v>0.1510380515317614</v>
+        <v>0.230129389748792</v>
       </c>
       <c r="O10">
-        <v>0.3211844539617538</v>
+        <v>0.3211133582030434</v>
       </c>
       <c r="P10">
-        <v>0.1543256981995366</v>
+        <v>0.232159993830216</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7120,31 +7120,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H11">
-        <v>75.38048875</v>
+        <v>97.47513250999999</v>
       </c>
       <c r="I11">
-        <v>3.772805661</v>
+        <v>3.735980997</v>
       </c>
       <c r="J11">
-        <v>78.31589132000001</v>
+        <v>100.8264073</v>
       </c>
       <c r="K11">
-        <v>64.65461327</v>
+        <v>78.1138839</v>
       </c>
       <c r="L11">
-        <v>2.836990525</v>
+        <v>2.811650403</v>
       </c>
       <c r="M11">
-        <v>67.01562457</v>
+        <v>80.70801435</v>
       </c>
       <c r="N11">
-        <v>0.165894975432122</v>
+        <v>0.2478592491289502</v>
       </c>
       <c r="O11">
-        <v>0.3298619180266737</v>
+        <v>0.3287501863722992</v>
       </c>
       <c r="P11">
-        <v>0.1686213748287388</v>
+        <v>0.2492737940838709</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7170,31 +7170,31 @@
         <v>72.56694129</v>
       </c>
       <c r="H12">
-        <v>72.77977213</v>
+        <v>93.21088721</v>
       </c>
       <c r="I12">
-        <v>3.795674801</v>
+        <v>3.756560036</v>
       </c>
       <c r="J12">
-        <v>75.72298494</v>
+        <v>96.55271087</v>
       </c>
       <c r="K12">
-        <v>61.69015674</v>
+        <v>73.74658409</v>
       </c>
       <c r="L12">
-        <v>2.837042792</v>
+        <v>2.811753221</v>
       </c>
       <c r="M12">
-        <v>64.06818158</v>
+        <v>76.34338027</v>
       </c>
       <c r="N12">
-        <v>0.1797631255297083</v>
+        <v>0.2639349789577487</v>
       </c>
       <c r="O12">
-        <v>0.3378983255744984</v>
+        <v>0.3360205326497251</v>
       </c>
       <c r="P12">
-        <v>0.1819125043442509</v>
+        <v>0.2647162141436052</v>
       </c>
     </row>
   </sheetData>
